--- a/水泥.excel/1101/1101(102.1~105.4)4.xlsx
+++ b/水泥.excel/1101/1101(102.1~105.4)4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,1200 +115,96 @@
     <t>備供出售金融資產未實現評價損益</t>
   </si>
   <si>
-    <t>-489,218</t>
-  </si>
-  <si>
-    <t>-2,136,407</t>
-  </si>
-  <si>
-    <t>1,649,359</t>
-  </si>
-  <si>
-    <t>1,908,817</t>
-  </si>
-  <si>
-    <t>2,318,385</t>
-  </si>
-  <si>
-    <t>-3,081,800</t>
-  </si>
-  <si>
-    <t>-787,040</t>
-  </si>
-  <si>
-    <t>826,077</t>
-  </si>
-  <si>
-    <t>114,595</t>
-  </si>
-  <si>
-    <t>-1,061,188</t>
-  </si>
-  <si>
-    <t>-2,989,773</t>
-  </si>
-  <si>
-    <t>-48,530</t>
-  </si>
-  <si>
-    <t>-5,141,341</t>
-  </si>
-  <si>
-    <t>1,131,470</t>
-  </si>
-  <si>
-    <t>243,381</t>
-  </si>
-  <si>
     <t>其他利益及損失淨額</t>
   </si>
   <si>
-    <t>355,405</t>
-  </si>
-  <si>
-    <t>-113,347</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>185,044</t>
-  </si>
-  <si>
-    <t>-153,671</t>
-  </si>
-  <si>
-    <t>-21,318</t>
-  </si>
-  <si>
-    <t>-69,844</t>
-  </si>
-  <si>
-    <t>-240,371</t>
-  </si>
-  <si>
-    <t>-144,414</t>
-  </si>
-  <si>
-    <t>-137,577</t>
-  </si>
-  <si>
-    <t>-1,182,086</t>
-  </si>
-  <si>
-    <t>-67,081</t>
-  </si>
-  <si>
-    <t>-2,078,936</t>
-  </si>
-  <si>
-    <t>-263,135</t>
-  </si>
-  <si>
-    <t>-2,585,948</t>
-  </si>
-  <si>
     <t>其他收入</t>
   </si>
   <si>
-    <t>335,010</t>
-  </si>
-  <si>
-    <t>373,833</t>
-  </si>
-  <si>
-    <t>842,310</t>
-  </si>
-  <si>
-    <t>1,968,187</t>
-  </si>
-  <si>
-    <t>230,627</t>
-  </si>
-  <si>
-    <t>474,257</t>
-  </si>
-  <si>
-    <t>736,932</t>
-  </si>
-  <si>
-    <t>2,238,549</t>
-  </si>
-  <si>
-    <t>222,029</t>
-  </si>
-  <si>
-    <t>652,071</t>
-  </si>
-  <si>
-    <t>618,097</t>
-  </si>
-  <si>
-    <t>216,835</t>
-  </si>
-  <si>
-    <t>2,207,830</t>
-  </si>
-  <si>
-    <t>691,231</t>
-  </si>
-  <si>
-    <t>2,004,375</t>
-  </si>
-  <si>
     <t>其他營業成本</t>
   </si>
   <si>
-    <t>23,052,350</t>
-  </si>
-  <si>
     <t>其他綜合損益</t>
   </si>
   <si>
-    <t>-68,042</t>
-  </si>
-  <si>
     <t>其他綜合損益（淨額）</t>
   </si>
   <si>
-    <t>1,284,445</t>
-  </si>
-  <si>
-    <t>-1,221,944</t>
-  </si>
-  <si>
-    <t>1,425,980</t>
-  </si>
-  <si>
-    <t>6,121,882</t>
-  </si>
-  <si>
-    <t>1,841,792</t>
-  </si>
-  <si>
-    <t>-4,396,675</t>
-  </si>
-  <si>
-    <t>1,171,991</t>
-  </si>
-  <si>
-    <t>3,225,651</t>
-  </si>
-  <si>
-    <t>-772,223</t>
-  </si>
-  <si>
-    <t>-2,139,392</t>
-  </si>
-  <si>
-    <t>-290,116</t>
-  </si>
-  <si>
-    <t>-828,511</t>
-  </si>
-  <si>
-    <t>-7,518,044</t>
-  </si>
-  <si>
-    <t>-1,868,415</t>
-  </si>
-  <si>
-    <t>-6,987,714</t>
-  </si>
-  <si>
     <t>國外營運機構財務報表換算之兌換差額</t>
   </si>
   <si>
-    <t>1,544,517</t>
-  </si>
-  <si>
-    <t>818,972</t>
-  </si>
-  <si>
-    <t>-139,049</t>
-  </si>
-  <si>
-    <t>3,480,277</t>
-  </si>
-  <si>
-    <t>-501,010</t>
-  </si>
-  <si>
-    <t>-1,153,962</t>
-  </si>
-  <si>
-    <t>1,757,546</t>
-  </si>
-  <si>
-    <t>2,106,968</t>
-  </si>
-  <si>
-    <t>-789,178</t>
-  </si>
-  <si>
-    <t>-983,216</t>
-  </si>
-  <si>
-    <t>2,374,207</t>
-  </si>
-  <si>
-    <t>-670,131</t>
-  </si>
-  <si>
-    <t>-1,828,277</t>
-  </si>
-  <si>
-    <t>-2,747,322</t>
-  </si>
-  <si>
-    <t>-7,055,040</t>
-  </si>
-  <si>
     <t>基本每股盈餘</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>2.93</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>1.56</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>1.72</t>
-  </si>
-  <si>
     <t>所得稅費用（利益）合計</t>
   </si>
   <si>
-    <t>341,165</t>
-  </si>
-  <si>
-    <t>806,669</t>
-  </si>
-  <si>
-    <t>1,173,759</t>
-  </si>
-  <si>
-    <t>3,485,773</t>
-  </si>
-  <si>
-    <t>759,611</t>
-  </si>
-  <si>
-    <t>1,457,502</t>
-  </si>
-  <si>
-    <t>1,161,937</t>
-  </si>
-  <si>
-    <t>4,614,844</t>
-  </si>
-  <si>
-    <t>495,349</t>
-  </si>
-  <si>
-    <t>514,664</t>
-  </si>
-  <si>
-    <t>181,884</t>
-  </si>
-  <si>
-    <t>183,320</t>
-  </si>
-  <si>
-    <t>1,740,389</t>
-  </si>
-  <si>
-    <t>741,847</t>
-  </si>
-  <si>
-    <t>2,673,260</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資之其他綜合損益之份額合計</t>
   </si>
   <si>
-    <t>205,492</t>
-  </si>
-  <si>
-    <t>87,318</t>
-  </si>
-  <si>
-    <t>-70,575</t>
-  </si>
-  <si>
-    <t>353,156</t>
-  </si>
-  <si>
-    <t>17,020</t>
-  </si>
-  <si>
-    <t>-151,297</t>
-  </si>
-  <si>
-    <t>186,357</t>
-  </si>
-  <si>
-    <t>331,223</t>
-  </si>
-  <si>
-    <t>-1,476</t>
-  </si>
-  <si>
-    <t>-6,193</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資損益之份額淨額</t>
   </si>
   <si>
-    <t>151,905</t>
-  </si>
-  <si>
-    <t>207,637</t>
-  </si>
-  <si>
-    <t>292,232</t>
-  </si>
-  <si>
-    <t>585,550</t>
-  </si>
-  <si>
-    <t>271,861</t>
-  </si>
-  <si>
-    <t>365,369</t>
-  </si>
-  <si>
-    <t>360,453</t>
-  </si>
-  <si>
-    <t>1,250,088</t>
-  </si>
-  <si>
-    <t>181,127</t>
-  </si>
-  <si>
-    <t>228,634</t>
-  </si>
-  <si>
-    <t>221,674</t>
-  </si>
-  <si>
-    <t>149,029</t>
-  </si>
-  <si>
-    <t>737,161</t>
-  </si>
-  <si>
-    <t>285,827</t>
-  </si>
-  <si>
-    <t>979,609</t>
-  </si>
-  <si>
     <t>採用權益法認列關聯企業及合資之其他綜合損益之份額-可能重分類至損益之項目</t>
   </si>
   <si>
-    <t>-72,913</t>
-  </si>
-  <si>
-    <t>-96,511</t>
-  </si>
-  <si>
-    <t>322,462</t>
-  </si>
-  <si>
-    <t>-99,757</t>
-  </si>
-  <si>
-    <t>6,015</t>
-  </si>
-  <si>
-    <t>-252,658</t>
-  </si>
-  <si>
-    <t>-493,741</t>
-  </si>
-  <si>
     <t>推銷費用</t>
   </si>
   <si>
-    <t>221,917</t>
-  </si>
-  <si>
-    <t>270,217</t>
-  </si>
-  <si>
-    <t>248,458</t>
-  </si>
-  <si>
-    <t>1,019,186</t>
-  </si>
-  <si>
-    <t>233,190</t>
-  </si>
-  <si>
-    <t>227,869</t>
-  </si>
-  <si>
-    <t>238,759</t>
-  </si>
-  <si>
-    <t>964,818</t>
-  </si>
-  <si>
-    <t>227,338</t>
-  </si>
-  <si>
-    <t>229,300</t>
-  </si>
-  <si>
-    <t>199,106</t>
-  </si>
-  <si>
-    <t>186,039</t>
-  </si>
-  <si>
-    <t>859,723</t>
-  </si>
-  <si>
-    <t>173,775</t>
-  </si>
-  <si>
-    <t>733,021</t>
-  </si>
-  <si>
     <t>本期淨利（淨損）</t>
   </si>
   <si>
-    <t>1,999,624</t>
-  </si>
-  <si>
-    <t>3,802,105</t>
-  </si>
-  <si>
-    <t>5,344,662</t>
-  </si>
-  <si>
-    <t>15,118,683</t>
-  </si>
-  <si>
-    <t>2,791,235</t>
-  </si>
-  <si>
-    <t>4,828,695</t>
-  </si>
-  <si>
-    <t>4,934,486</t>
-  </si>
-  <si>
-    <t>16,583,876</t>
-  </si>
-  <si>
-    <t>974,518</t>
-  </si>
-  <si>
-    <t>2,727,845</t>
-  </si>
-  <si>
-    <t>989,427</t>
-  </si>
-  <si>
-    <t>94,527</t>
-  </si>
-  <si>
-    <t>6,925,626</t>
-  </si>
-  <si>
-    <t>3,283,221</t>
-  </si>
-  <si>
-    <t>8,842,075</t>
-  </si>
-  <si>
     <t>本期綜合損益總額</t>
   </si>
   <si>
-    <t>3,284,069</t>
-  </si>
-  <si>
-    <t>2,580,161</t>
-  </si>
-  <si>
-    <t>6,770,642</t>
-  </si>
-  <si>
-    <t>21,240,565</t>
-  </si>
-  <si>
-    <t>4,633,027</t>
-  </si>
-  <si>
-    <t>432,020</t>
-  </si>
-  <si>
-    <t>6,106,477</t>
-  </si>
-  <si>
-    <t>19,809,527</t>
-  </si>
-  <si>
-    <t>202,295</t>
-  </si>
-  <si>
-    <t>588,453</t>
-  </si>
-  <si>
-    <t>699,311</t>
-  </si>
-  <si>
-    <t>-733,984</t>
-  </si>
-  <si>
-    <t>-592,418</t>
-  </si>
-  <si>
-    <t>1,414,806</t>
-  </si>
-  <si>
-    <t>1,854,361</t>
-  </si>
-  <si>
     <t>母公司業主（淨利／損）</t>
   </si>
   <si>
-    <t>1,413,035</t>
-  </si>
-  <si>
-    <t>2,586,787</t>
-  </si>
-  <si>
-    <t>3,594,193</t>
-  </si>
-  <si>
-    <t>10,026,731</t>
-  </si>
-  <si>
-    <t>1,833,139</t>
-  </si>
-  <si>
-    <t>3,195,746</t>
-  </si>
-  <si>
-    <t>3,215,834</t>
-  </si>
-  <si>
-    <t>10,828,868</t>
-  </si>
-  <si>
-    <t>808,778</t>
-  </si>
-  <si>
-    <t>2,243,129</t>
-  </si>
-  <si>
-    <t>948,745</t>
-  </si>
-  <si>
-    <t>220,995</t>
-  </si>
-  <si>
-    <t>5,775,989</t>
-  </si>
-  <si>
-    <t>2,321,292</t>
-  </si>
-  <si>
-    <t>6,358,452</t>
-  </si>
-  <si>
     <t>母公司業主（綜合損益）</t>
   </si>
   <si>
-    <t>1,911,110</t>
-  </si>
-  <si>
-    <t>949,640</t>
-  </si>
-  <si>
-    <t>5,025,600</t>
-  </si>
-  <si>
-    <t>14,336,481</t>
-  </si>
-  <si>
-    <t>4,015,175</t>
-  </si>
-  <si>
-    <t>-754,894</t>
-  </si>
-  <si>
-    <t>3,621,052</t>
-  </si>
-  <si>
-    <t>13,340,699</t>
-  </si>
-  <si>
-    <t>349,121</t>
-  </si>
-  <si>
-    <t>512,044</t>
-  </si>
-  <si>
-    <t>-255,288</t>
-  </si>
-  <si>
-    <t>-333,525</t>
-  </si>
-  <si>
-    <t>-806,454</t>
-  </si>
-  <si>
-    <t>1,617,077</t>
-  </si>
-  <si>
-    <t>2,411,113</t>
-  </si>
-  <si>
     <t>營業利益（損失）</t>
   </si>
   <si>
-    <t>2,026,729</t>
-  </si>
-  <si>
-    <t>4,588,992</t>
-  </si>
-  <si>
-    <t>5,910,634</t>
-  </si>
-  <si>
-    <t>17,775,975</t>
-  </si>
-  <si>
-    <t>3,684,224</t>
-  </si>
-  <si>
-    <t>5,938,317</t>
-  </si>
-  <si>
-    <t>5,544,164</t>
-  </si>
-  <si>
-    <t>19,857,669</t>
-  </si>
-  <si>
-    <t>1,693,508</t>
-  </si>
-  <si>
-    <t>2,917,631</t>
-  </si>
-  <si>
-    <t>1,996,477</t>
-  </si>
-  <si>
-    <t>483,889</t>
-  </si>
-  <si>
-    <t>9,673,699</t>
-  </si>
-  <si>
-    <t>3,780,535</t>
-  </si>
-  <si>
-    <t>13,034,136</t>
-  </si>
-  <si>
     <t>營業外收入及支出合計</t>
   </si>
   <si>
-    <t>314,060</t>
-  </si>
-  <si>
-    <t>19,782</t>
-  </si>
-  <si>
-    <t>607,787</t>
-  </si>
-  <si>
-    <t>828,481</t>
-  </si>
-  <si>
-    <t>-133,378</t>
-  </si>
-  <si>
-    <t>347,880</t>
-  </si>
-  <si>
-    <t>552,259</t>
-  </si>
-  <si>
-    <t>1,341,051</t>
-  </si>
-  <si>
-    <t>-223,641</t>
-  </si>
-  <si>
-    <t>324,878</t>
-  </si>
-  <si>
-    <t>-825,166</t>
-  </si>
-  <si>
-    <t>-206,042</t>
-  </si>
-  <si>
-    <t>-1,007,684</t>
-  </si>
-  <si>
-    <t>244,533</t>
-  </si>
-  <si>
-    <t>-1,518,801</t>
-  </si>
-  <si>
     <t>營業成本合計</t>
   </si>
   <si>
-    <t>20,990,175</t>
-  </si>
-  <si>
-    <t>23,048,175</t>
-  </si>
-  <si>
-    <t>93,275,950</t>
-  </si>
-  <si>
-    <t>21,852,093</t>
-  </si>
-  <si>
-    <t>24,732,219</t>
-  </si>
-  <si>
-    <t>23,421,140</t>
-  </si>
-  <si>
-    <t>93,453,214</t>
-  </si>
-  <si>
-    <t>18,579,134</t>
-  </si>
-  <si>
-    <t>21,076,772</t>
-  </si>
-  <si>
-    <t>19,378,040</t>
-  </si>
-  <si>
-    <t>16,138,503</t>
-  </si>
-  <si>
-    <t>79,151,059</t>
-  </si>
-  <si>
-    <t>17,390,791</t>
-  </si>
-  <si>
-    <t>71,583,302</t>
-  </si>
-  <si>
     <t>營業收入合計</t>
   </si>
   <si>
-    <t>24,114,047</t>
-  </si>
-  <si>
-    <t>28,670,184</t>
-  </si>
-  <si>
-    <t>30,106,839</t>
-  </si>
-  <si>
-    <t>116,098,947</t>
-  </si>
-  <si>
-    <t>26,716,227</t>
-  </si>
-  <si>
-    <t>31,873,459</t>
-  </si>
-  <si>
-    <t>30,094,955</t>
-  </si>
-  <si>
-    <t>118,325,809</t>
-  </si>
-  <si>
-    <t>21,440,142</t>
-  </si>
-  <si>
-    <t>24,994,185</t>
-  </si>
-  <si>
-    <t>22,683,975</t>
-  </si>
-  <si>
-    <t>17,724,112</t>
-  </si>
-  <si>
-    <t>93,679,076</t>
-  </si>
-  <si>
-    <t>22,350,039</t>
-  </si>
-  <si>
-    <t>89,564,306</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）</t>
   </si>
   <si>
-    <t>3,123,872</t>
-  </si>
-  <si>
-    <t>5,622,009</t>
-  </si>
-  <si>
-    <t>7,054,489</t>
-  </si>
-  <si>
-    <t>22,822,997</t>
-  </si>
-  <si>
-    <t>4,864,134</t>
-  </si>
-  <si>
-    <t>7,141,240</t>
-  </si>
-  <si>
-    <t>6,673,815</t>
-  </si>
-  <si>
-    <t>24,872,595</t>
-  </si>
-  <si>
-    <t>2,861,008</t>
-  </si>
-  <si>
-    <t>3,917,413</t>
-  </si>
-  <si>
-    <t>3,305,935</t>
-  </si>
-  <si>
-    <t>1,585,609</t>
-  </si>
-  <si>
-    <t>14,528,017</t>
-  </si>
-  <si>
-    <t>4,959,248</t>
-  </si>
-  <si>
-    <t>17,981,004</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）淨額</t>
   </si>
   <si>
     <t>營業費用合計</t>
   </si>
   <si>
-    <t>1,097,143</t>
-  </si>
-  <si>
-    <t>1,033,017</t>
-  </si>
-  <si>
-    <t>1,143,855</t>
-  </si>
-  <si>
-    <t>5,047,022</t>
-  </si>
-  <si>
-    <t>1,179,910</t>
-  </si>
-  <si>
-    <t>1,202,923</t>
-  </si>
-  <si>
-    <t>1,129,651</t>
-  </si>
-  <si>
-    <t>5,014,926</t>
-  </si>
-  <si>
-    <t>1,167,500</t>
-  </si>
-  <si>
-    <t>999,782</t>
-  </si>
-  <si>
-    <t>1,309,458</t>
-  </si>
-  <si>
-    <t>1,101,720</t>
-  </si>
-  <si>
-    <t>4,854,318</t>
-  </si>
-  <si>
-    <t>1,178,713</t>
-  </si>
-  <si>
-    <t>4,946,868</t>
-  </si>
-  <si>
     <t>現金流量避險</t>
   </si>
   <si>
-    <t>23,654</t>
-  </si>
-  <si>
-    <t>8,173</t>
-  </si>
-  <si>
-    <t>-13,755</t>
-  </si>
-  <si>
-    <t>47,427</t>
-  </si>
-  <si>
-    <t>7,397</t>
-  </si>
-  <si>
-    <t>-9,616</t>
-  </si>
-  <si>
-    <t>15,128</t>
-  </si>
-  <si>
-    <t>21,883</t>
-  </si>
-  <si>
     <t>現金流量避險中屬有效避險部分之避險工具利益(損失)</t>
   </si>
   <si>
-    <t>-24,727</t>
-  </si>
-  <si>
-    <t>1,523</t>
-  </si>
-  <si>
-    <t>2,988</t>
-  </si>
-  <si>
-    <t>-10,093</t>
-  </si>
-  <si>
-    <t>-11,071</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>4,022</t>
-  </si>
-  <si>
     <t>研究發展費用</t>
   </si>
   <si>
-    <t>11,268</t>
-  </si>
-  <si>
-    <t>11,078</t>
-  </si>
-  <si>
-    <t>10,419</t>
-  </si>
-  <si>
-    <t>43,663</t>
-  </si>
-  <si>
-    <t>10,271</t>
-  </si>
-  <si>
-    <t>8,987</t>
-  </si>
-  <si>
-    <t>10,163</t>
-  </si>
-  <si>
-    <t>38,678</t>
-  </si>
-  <si>
-    <t>6,399</t>
-  </si>
-  <si>
-    <t>4,508</t>
-  </si>
-  <si>
-    <t>10,487</t>
-  </si>
-  <si>
-    <t>5,503</t>
-  </si>
-  <si>
-    <t>6,895</t>
-  </si>
-  <si>
-    <t>5,777</t>
-  </si>
-  <si>
-    <t>20,618</t>
-  </si>
-  <si>
     <t>確定福利計畫之再衡量數</t>
   </si>
   <si>
-    <t>400,247</t>
-  </si>
-  <si>
-    <t>-72,678</t>
-  </si>
-  <si>
-    <t>-652,832</t>
-  </si>
-  <si>
-    <t>385,369</t>
-  </si>
-  <si>
     <t>稀釋每股盈餘</t>
   </si>
   <si>
-    <t>2.71</t>
-  </si>
-  <si>
     <t>稅前淨利（淨損）</t>
   </si>
   <si>
-    <t>2,340,789</t>
-  </si>
-  <si>
-    <t>4,608,774</t>
-  </si>
-  <si>
-    <t>6,518,421</t>
-  </si>
-  <si>
-    <t>18,604,456</t>
-  </si>
-  <si>
-    <t>3,550,846</t>
-  </si>
-  <si>
-    <t>6,286,197</t>
-  </si>
-  <si>
-    <t>6,096,423</t>
-  </si>
-  <si>
-    <t>21,198,720</t>
-  </si>
-  <si>
-    <t>1,469,867</t>
-  </si>
-  <si>
-    <t>3,242,509</t>
-  </si>
-  <si>
-    <t>1,171,311</t>
-  </si>
-  <si>
-    <t>277,847</t>
-  </si>
-  <si>
-    <t>8,666,015</t>
-  </si>
-  <si>
-    <t>4,025,068</t>
-  </si>
-  <si>
-    <t>11,515,335</t>
-  </si>
-  <si>
     <t>管理費用</t>
   </si>
   <si>
-    <t>863,958</t>
-  </si>
-  <si>
-    <t>751,722</t>
-  </si>
-  <si>
-    <t>884,978</t>
-  </si>
-  <si>
-    <t>3,984,173</t>
-  </si>
-  <si>
-    <t>936,449</t>
-  </si>
-  <si>
-    <t>966,067</t>
-  </si>
-  <si>
-    <t>880,729</t>
-  </si>
-  <si>
-    <t>4,011,430</t>
-  </si>
-  <si>
-    <t>933,763</t>
-  </si>
-  <si>
-    <t>765,974</t>
-  </si>
-  <si>
-    <t>1,099,865</t>
-  </si>
-  <si>
-    <t>910,178</t>
-  </si>
-  <si>
-    <t>3,987,700</t>
-  </si>
-  <si>
-    <t>999,161</t>
-  </si>
-  <si>
-    <t>4,193,229</t>
-  </si>
-  <si>
     <t>繼續營業單位本期淨利（淨損）</t>
   </si>
   <si>
@@ -1318,66 +214,12 @@
     <t>與不重分類之項目相關之所得稅</t>
   </si>
   <si>
-    <t>-110,938</t>
-  </si>
-  <si>
-    <t>65,512</t>
-  </si>
-  <si>
     <t>與其他綜合損益組成部分相關之所得稅</t>
   </si>
   <si>
-    <t>-12,178</t>
-  </si>
-  <si>
     <t>財務成本淨額</t>
   </si>
   <si>
-    <t>528,260</t>
-  </si>
-  <si>
-    <t>448,341</t>
-  </si>
-  <si>
-    <t>526,755</t>
-  </si>
-  <si>
-    <t>1,910,300</t>
-  </si>
-  <si>
-    <t>482,195</t>
-  </si>
-  <si>
-    <t>470,428</t>
-  </si>
-  <si>
-    <t>475,282</t>
-  </si>
-  <si>
-    <t>1,907,215</t>
-  </si>
-  <si>
-    <t>482,383</t>
-  </si>
-  <si>
-    <t>418,250</t>
-  </si>
-  <si>
-    <t>482,851</t>
-  </si>
-  <si>
-    <t>504,825</t>
-  </si>
-  <si>
-    <t>1,873,739</t>
-  </si>
-  <si>
-    <t>469,390</t>
-  </si>
-  <si>
-    <t>1,916,837</t>
-  </si>
-  <si>
     <t>銷貨成本</t>
   </si>
   <si>
@@ -1387,97 +229,7 @@
     <t>非控制權益（淨利／損）</t>
   </si>
   <si>
-    <t>586,589</t>
-  </si>
-  <si>
-    <t>1,215,318</t>
-  </si>
-  <si>
-    <t>1,750,469</t>
-  </si>
-  <si>
-    <t>5,091,952</t>
-  </si>
-  <si>
-    <t>958,096</t>
-  </si>
-  <si>
-    <t>1,632,949</t>
-  </si>
-  <si>
-    <t>1,718,652</t>
-  </si>
-  <si>
-    <t>5,755,008</t>
-  </si>
-  <si>
-    <t>165,740</t>
-  </si>
-  <si>
-    <t>484,716</t>
-  </si>
-  <si>
-    <t>40,682</t>
-  </si>
-  <si>
-    <t>-126,468</t>
-  </si>
-  <si>
-    <t>1,149,637</t>
-  </si>
-  <si>
-    <t>961,929</t>
-  </si>
-  <si>
-    <t>2,483,623</t>
-  </si>
-  <si>
     <t>非控制權益（綜合損益）</t>
-  </si>
-  <si>
-    <t>1,372,959</t>
-  </si>
-  <si>
-    <t>1,630,521</t>
-  </si>
-  <si>
-    <t>1,745,042</t>
-  </si>
-  <si>
-    <t>6,904,084</t>
-  </si>
-  <si>
-    <t>617,852</t>
-  </si>
-  <si>
-    <t>1,186,914</t>
-  </si>
-  <si>
-    <t>2,485,425</t>
-  </si>
-  <si>
-    <t>6,468,828</t>
-  </si>
-  <si>
-    <t>-146,826</t>
-  </si>
-  <si>
-    <t>76,409</t>
-  </si>
-  <si>
-    <t>954,599</t>
-  </si>
-  <si>
-    <t>-400,459</t>
-  </si>
-  <si>
-    <t>214,036</t>
-  </si>
-  <si>
-    <t>-202,271</t>
-  </si>
-  <si>
-    <t>-556,752</t>
   </si>
 </sst>
 </file>
@@ -1936,98 +688,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>-489218</v>
       </c>
       <c r="C2" t="n">
         <v>-2.03</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>-2136407</v>
       </c>
       <c r="E2" t="n">
         <v>-7.45</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>1649359</v>
       </c>
       <c r="G2" t="n">
         <v>5.48</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>1908817</v>
       </c>
       <c r="I2" t="n">
         <v>1.64</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>2318385</v>
       </c>
       <c r="K2" t="n">
         <v>8.68</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>-3081800</v>
       </c>
       <c r="M2" t="n">
         <v>-9.67</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>-787040</v>
       </c>
       <c r="O2" t="n">
         <v>-2.62</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>826077</v>
       </c>
       <c r="Q2" t="n">
         <v>0.7</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>114595</v>
       </c>
       <c r="S2" t="n">
         <v>0.53</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>-1061188</v>
       </c>
       <c r="U2" t="n">
         <v>-4.25</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>-2989773</v>
       </c>
       <c r="W2" t="n">
         <v>-13.18</v>
       </c>
-      <c r="X2" t="s">
-        <v>43</v>
+      <c r="X2" t="n">
+        <v>-2989773</v>
       </c>
       <c r="Y2" t="n">
         <v>-13.18</v>
       </c>
-      <c r="Z2" t="s">
-        <v>44</v>
+      <c r="Z2" t="n">
+        <v>-48530</v>
       </c>
       <c r="AA2" t="n">
         <v>-0.27</v>
       </c>
-      <c r="AB2" t="s">
-        <v>45</v>
+      <c r="AB2" t="n">
+        <v>-1127880</v>
       </c>
       <c r="AC2" t="n">
-        <v>-5.49</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>46</v>
+        <v>-4.92</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1131470</v>
       </c>
       <c r="AE2" t="n">
         <v>5.06</v>
       </c>
-      <c r="AF2" t="s">
-        <v>47</v>
+      <c r="AF2" t="n">
+        <v>243381</v>
       </c>
       <c r="AG2" t="n">
         <v>0.27</v>
@@ -2035,100 +787,100 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>355405</v>
       </c>
       <c r="C3" t="n">
         <v>1.47</v>
       </c>
-      <c r="D3" t="s">
-        <v>50</v>
+      <c r="D3" t="n">
+        <v>-113347</v>
       </c>
       <c r="E3" t="n">
         <v>-0.4</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>52</v>
+      <c r="H3" t="n">
+        <v>185044</v>
       </c>
       <c r="I3" t="n">
         <v>0.16</v>
       </c>
-      <c r="J3" t="s">
-        <v>53</v>
+      <c r="J3" t="n">
+        <v>-153671</v>
       </c>
       <c r="K3" t="n">
         <v>-0.58</v>
       </c>
-      <c r="L3" t="s">
-        <v>54</v>
+      <c r="L3" t="n">
+        <v>-21318</v>
       </c>
       <c r="M3" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="N3" t="s">
-        <v>55</v>
+      <c r="N3" t="n">
+        <v>-69844</v>
       </c>
       <c r="O3" t="n">
         <v>-0.23</v>
       </c>
-      <c r="P3" t="s">
-        <v>56</v>
+      <c r="P3" t="n">
+        <v>-240371</v>
       </c>
       <c r="Q3" t="n">
         <v>-0.2</v>
       </c>
-      <c r="R3" t="s">
-        <v>57</v>
+      <c r="R3" t="n">
+        <v>-144414</v>
       </c>
       <c r="S3" t="n">
         <v>-0.67</v>
       </c>
-      <c r="T3" t="s">
-        <v>58</v>
+      <c r="T3" t="n">
+        <v>-137577</v>
       </c>
       <c r="U3" t="n">
         <v>-0.55</v>
       </c>
-      <c r="V3" t="s">
-        <v>59</v>
+      <c r="V3" t="n">
+        <v>-1182086</v>
       </c>
       <c r="W3" t="n">
         <v>-5.21</v>
       </c>
-      <c r="X3" t="s">
-        <v>59</v>
+      <c r="X3" t="n">
+        <v>-1182086</v>
       </c>
       <c r="Y3" t="n">
         <v>-5.21</v>
       </c>
-      <c r="Z3" t="s">
-        <v>60</v>
+      <c r="Z3" t="n">
+        <v>-67081</v>
       </c>
       <c r="AA3" t="n">
         <v>-0.38</v>
       </c>
-      <c r="AB3" t="s">
-        <v>61</v>
+      <c r="AB3" t="n">
+        <v>-599724</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2.22</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>62</v>
+        <v>-2.61</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-263135</v>
       </c>
       <c r="AE3" t="n">
         <v>-1.18</v>
       </c>
-      <c r="AF3" t="s">
-        <v>63</v>
+      <c r="AF3" t="n">
+        <v>-2585948</v>
       </c>
       <c r="AG3" t="n">
         <v>-2.89</v>
@@ -2136,100 +888,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>335010</v>
       </c>
       <c r="C4" t="n">
         <v>1.39</v>
       </c>
-      <c r="D4" t="s">
-        <v>66</v>
+      <c r="D4" t="n">
+        <v>373833</v>
       </c>
       <c r="E4" t="n">
         <v>1.3</v>
       </c>
-      <c r="F4" t="s">
-        <v>67</v>
+      <c r="F4" t="n">
+        <v>842310</v>
       </c>
       <c r="G4" t="n">
         <v>2.8</v>
       </c>
-      <c r="H4" t="s">
-        <v>68</v>
+      <c r="H4" t="n">
+        <v>1968187</v>
       </c>
       <c r="I4" t="n">
         <v>1.7</v>
       </c>
-      <c r="J4" t="s">
-        <v>69</v>
+      <c r="J4" t="n">
+        <v>230627</v>
       </c>
       <c r="K4" t="n">
         <v>0.86</v>
       </c>
-      <c r="L4" t="s">
-        <v>70</v>
+      <c r="L4" t="n">
+        <v>474257</v>
       </c>
       <c r="M4" t="n">
         <v>1.49</v>
       </c>
-      <c r="N4" t="s">
-        <v>71</v>
+      <c r="N4" t="n">
+        <v>736932</v>
       </c>
       <c r="O4" t="n">
         <v>2.45</v>
       </c>
-      <c r="P4" t="s">
-        <v>72</v>
+      <c r="P4" t="n">
+        <v>2238549</v>
       </c>
       <c r="Q4" t="n">
         <v>1.89</v>
       </c>
-      <c r="R4" t="s">
-        <v>73</v>
+      <c r="R4" t="n">
+        <v>222029</v>
       </c>
       <c r="S4" t="n">
         <v>1.04</v>
       </c>
-      <c r="T4" t="s">
-        <v>74</v>
+      <c r="T4" t="n">
+        <v>652071</v>
       </c>
       <c r="U4" t="n">
         <v>2.61</v>
       </c>
-      <c r="V4" t="s">
-        <v>75</v>
+      <c r="V4" t="n">
+        <v>618097</v>
       </c>
       <c r="W4" t="n">
         <v>2.72</v>
       </c>
-      <c r="X4" t="s">
-        <v>75</v>
+      <c r="X4" t="n">
+        <v>618097</v>
       </c>
       <c r="Y4" t="n">
         <v>2.72</v>
       </c>
-      <c r="Z4" t="s">
-        <v>76</v>
+      <c r="Z4" t="n">
+        <v>216835</v>
       </c>
       <c r="AA4" t="n">
         <v>1.22</v>
       </c>
-      <c r="AB4" t="s">
-        <v>77</v>
+      <c r="AB4" t="n">
+        <v>539412</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>78</v>
+        <v>2.35</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>691231</v>
       </c>
       <c r="AE4" t="n">
         <v>3.09</v>
       </c>
-      <c r="AF4" t="s">
-        <v>79</v>
+      <c r="AF4" t="n">
+        <v>2004375</v>
       </c>
       <c r="AG4" t="n">
         <v>2.24</v>
@@ -2237,14 +989,14 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="s"/>
-      <c r="F5" t="s">
-        <v>81</v>
+      <c r="F5" t="n">
+        <v>23052350</v>
       </c>
       <c r="G5" t="n">
         <v>76.56999999999999</v>
@@ -2278,7 +1030,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -2286,8 +1038,8 @@
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>83</v>
+      <c r="H6" t="n">
+        <v>-68042</v>
       </c>
       <c r="I6" t="n">
         <v>-0.06</v>
@@ -2319,100 +1071,100 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1284445</v>
       </c>
       <c r="C7" t="n">
         <v>5.33</v>
       </c>
-      <c r="D7" t="s">
-        <v>86</v>
+      <c r="D7" t="n">
+        <v>-1221944</v>
       </c>
       <c r="E7" t="n">
         <v>-4.26</v>
       </c>
-      <c r="F7" t="s">
-        <v>87</v>
+      <c r="F7" t="n">
+        <v>1425980</v>
       </c>
       <c r="G7" t="n">
         <v>4.74</v>
       </c>
-      <c r="H7" t="s">
-        <v>88</v>
+      <c r="H7" t="n">
+        <v>6121882</v>
       </c>
       <c r="I7" t="n">
         <v>5.27</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
+      <c r="J7" t="n">
+        <v>1841792</v>
       </c>
       <c r="K7" t="n">
         <v>6.89</v>
       </c>
-      <c r="L7" t="s">
-        <v>90</v>
+      <c r="L7" t="n">
+        <v>-4396675</v>
       </c>
       <c r="M7" t="n">
         <v>-13.79</v>
       </c>
-      <c r="N7" t="s">
-        <v>91</v>
+      <c r="N7" t="n">
+        <v>1171991</v>
       </c>
       <c r="O7" t="n">
         <v>3.89</v>
       </c>
-      <c r="P7" t="s">
-        <v>92</v>
+      <c r="P7" t="n">
+        <v>3225651</v>
       </c>
       <c r="Q7" t="n">
         <v>2.73</v>
       </c>
-      <c r="R7" t="s">
-        <v>93</v>
+      <c r="R7" t="n">
+        <v>-772223</v>
       </c>
       <c r="S7" t="n">
         <v>-3.6</v>
       </c>
-      <c r="T7" t="s">
-        <v>94</v>
+      <c r="T7" t="n">
+        <v>-2139392</v>
       </c>
       <c r="U7" t="n">
         <v>-8.56</v>
       </c>
-      <c r="V7" t="s">
-        <v>95</v>
+      <c r="V7" t="n">
+        <v>-290116</v>
       </c>
       <c r="W7" t="n">
         <v>-1.28</v>
       </c>
-      <c r="X7" t="s">
-        <v>95</v>
+      <c r="X7" t="n">
+        <v>-290116</v>
       </c>
       <c r="Y7" t="n">
         <v>-1.28</v>
       </c>
-      <c r="Z7" t="s">
-        <v>96</v>
+      <c r="Z7" t="n">
+        <v>-828511</v>
       </c>
       <c r="AA7" t="n">
         <v>-4.67</v>
       </c>
-      <c r="AB7" t="s">
-        <v>97</v>
+      <c r="AB7" t="n">
+        <v>-3473063</v>
       </c>
       <c r="AC7" t="n">
-        <v>-8.029999999999999</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>98</v>
+        <v>-15.14</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-1868415</v>
       </c>
       <c r="AE7" t="n">
         <v>-8.359999999999999</v>
       </c>
-      <c r="AF7" t="s">
-        <v>99</v>
+      <c r="AF7" t="n">
+        <v>-6987714</v>
       </c>
       <c r="AG7" t="n">
         <v>-7.8</v>
@@ -2420,100 +1172,100 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1544517</v>
       </c>
       <c r="C8" t="n">
         <v>6.41</v>
       </c>
-      <c r="D8" t="s">
-        <v>102</v>
+      <c r="D8" t="n">
+        <v>818972</v>
       </c>
       <c r="E8" t="n">
         <v>2.86</v>
       </c>
-      <c r="F8" t="s">
-        <v>103</v>
+      <c r="F8" t="n">
+        <v>-139049</v>
       </c>
       <c r="G8" t="n">
         <v>-0.46</v>
       </c>
-      <c r="H8" t="s">
-        <v>104</v>
+      <c r="H8" t="n">
+        <v>3480277</v>
       </c>
       <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
-        <v>105</v>
+      <c r="J8" t="n">
+        <v>-501010</v>
       </c>
       <c r="K8" t="n">
         <v>-1.88</v>
       </c>
-      <c r="L8" t="s">
-        <v>106</v>
+      <c r="L8" t="n">
+        <v>-1153962</v>
       </c>
       <c r="M8" t="n">
         <v>-3.62</v>
       </c>
-      <c r="N8" t="s">
-        <v>107</v>
+      <c r="N8" t="n">
+        <v>1757546</v>
       </c>
       <c r="O8" t="n">
         <v>5.84</v>
       </c>
-      <c r="P8" t="s">
-        <v>108</v>
+      <c r="P8" t="n">
+        <v>2106968</v>
       </c>
       <c r="Q8" t="n">
         <v>1.78</v>
       </c>
-      <c r="R8" t="s">
-        <v>109</v>
+      <c r="R8" t="n">
+        <v>-789178</v>
       </c>
       <c r="S8" t="n">
         <v>-3.68</v>
       </c>
-      <c r="T8" t="s">
-        <v>110</v>
+      <c r="T8" t="n">
+        <v>-983216</v>
       </c>
       <c r="U8" t="n">
         <v>-3.93</v>
       </c>
-      <c r="V8" t="s">
-        <v>111</v>
+      <c r="V8" t="n">
+        <v>2374207</v>
       </c>
       <c r="W8" t="n">
         <v>10.47</v>
       </c>
-      <c r="X8" t="s">
-        <v>111</v>
+      <c r="X8" t="n">
+        <v>2374207</v>
       </c>
       <c r="Y8" t="n">
         <v>10.47</v>
       </c>
-      <c r="Z8" t="s">
-        <v>112</v>
+      <c r="Z8" t="n">
+        <v>-670131</v>
       </c>
       <c r="AA8" t="n">
         <v>-3.78</v>
       </c>
-      <c r="AB8" t="s">
-        <v>113</v>
+      <c r="AB8" t="n">
+        <v>-2218612</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.95</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>114</v>
+        <v>-9.67</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-2747322</v>
       </c>
       <c r="AE8" t="n">
         <v>-12.29</v>
       </c>
-      <c r="AF8" t="s">
-        <v>115</v>
+      <c r="AF8" t="n">
+        <v>-7055040</v>
       </c>
       <c r="AG8" t="n">
         <v>-7.88</v>
@@ -2521,169 +1273,169 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.38</v>
       </c>
       <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>118</v>
+      <c r="D9" t="n">
+        <v>0.7</v>
       </c>
       <c r="E9" t="s"/>
-      <c r="F9" t="s">
-        <v>119</v>
+      <c r="F9" t="n">
+        <v>0.97</v>
       </c>
       <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>120</v>
+      <c r="H9" t="n">
+        <v>2.72</v>
       </c>
       <c r="I9" t="s"/>
-      <c r="J9" t="s">
-        <v>121</v>
+      <c r="J9" t="n">
+        <v>0.5</v>
       </c>
       <c r="K9" t="s"/>
-      <c r="L9" t="s">
-        <v>122</v>
+      <c r="L9" t="n">
+        <v>0.86</v>
       </c>
       <c r="M9" t="s"/>
-      <c r="N9" t="s">
-        <v>123</v>
+      <c r="N9" t="n">
+        <v>0.87</v>
       </c>
       <c r="O9" t="s"/>
-      <c r="P9" t="s">
-        <v>124</v>
+      <c r="P9" t="n">
+        <v>2.93</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s">
-        <v>125</v>
+      <c r="R9" t="n">
+        <v>0.22</v>
       </c>
       <c r="S9" t="s"/>
-      <c r="T9" t="s">
-        <v>126</v>
+      <c r="T9" t="n">
+        <v>0.61</v>
       </c>
       <c r="U9" t="s"/>
-      <c r="V9" t="s">
-        <v>127</v>
+      <c r="V9" t="n">
+        <v>0.26</v>
       </c>
       <c r="W9" t="s"/>
-      <c r="X9" t="s">
-        <v>127</v>
+      <c r="X9" t="n">
+        <v>0.26</v>
       </c>
       <c r="Y9" t="s"/>
-      <c r="Z9" t="s">
-        <v>128</v>
+      <c r="Z9" t="n">
+        <v>0.06</v>
       </c>
       <c r="AA9" t="s"/>
-      <c r="AB9" t="s">
-        <v>129</v>
+      <c r="AB9" t="n">
+        <v>0.54</v>
       </c>
       <c r="AC9" t="s"/>
-      <c r="AD9" t="s">
-        <v>130</v>
+      <c r="AD9" t="n">
+        <v>0.63</v>
       </c>
       <c r="AE9" t="s"/>
-      <c r="AF9" t="s">
-        <v>131</v>
+      <c r="AF9" t="n">
+        <v>1.72</v>
       </c>
       <c r="AG9" t="s"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s">
-        <v>133</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>341165</v>
       </c>
       <c r="C10" t="n">
         <v>1.41</v>
       </c>
-      <c r="D10" t="s">
-        <v>134</v>
+      <c r="D10" t="n">
+        <v>806669</v>
       </c>
       <c r="E10" t="n">
         <v>2.81</v>
       </c>
-      <c r="F10" t="s">
-        <v>135</v>
+      <c r="F10" t="n">
+        <v>1173759</v>
       </c>
       <c r="G10" t="n">
         <v>3.9</v>
       </c>
-      <c r="H10" t="s">
-        <v>136</v>
+      <c r="H10" t="n">
+        <v>3485773</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
-        <v>137</v>
+      <c r="J10" t="n">
+        <v>759611</v>
       </c>
       <c r="K10" t="n">
         <v>2.84</v>
       </c>
-      <c r="L10" t="s">
-        <v>138</v>
+      <c r="L10" t="n">
+        <v>1457502</v>
       </c>
       <c r="M10" t="n">
         <v>4.57</v>
       </c>
-      <c r="N10" t="s">
-        <v>139</v>
+      <c r="N10" t="n">
+        <v>1161937</v>
       </c>
       <c r="O10" t="n">
         <v>3.86</v>
       </c>
-      <c r="P10" t="s">
-        <v>140</v>
+      <c r="P10" t="n">
+        <v>4614844</v>
       </c>
       <c r="Q10" t="n">
         <v>3.9</v>
       </c>
-      <c r="R10" t="s">
-        <v>141</v>
+      <c r="R10" t="n">
+        <v>495349</v>
       </c>
       <c r="S10" t="n">
         <v>2.31</v>
       </c>
-      <c r="T10" t="s">
-        <v>142</v>
+      <c r="T10" t="n">
+        <v>514664</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
       </c>
-      <c r="V10" t="s">
-        <v>143</v>
+      <c r="V10" t="n">
+        <v>181884</v>
       </c>
       <c r="W10" t="n">
         <v>0.8</v>
       </c>
-      <c r="X10" t="s">
-        <v>143</v>
+      <c r="X10" t="n">
+        <v>181884</v>
       </c>
       <c r="Y10" t="n">
         <v>0.8</v>
       </c>
-      <c r="Z10" t="s">
-        <v>144</v>
+      <c r="Z10" t="n">
+        <v>183320</v>
       </c>
       <c r="AA10" t="n">
         <v>1.03</v>
       </c>
-      <c r="AB10" t="s">
-        <v>145</v>
+      <c r="AB10" t="n">
+        <v>759266</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>146</v>
+        <v>3.31</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>741847</v>
       </c>
       <c r="AE10" t="n">
         <v>3.32</v>
       </c>
-      <c r="AF10" t="s">
-        <v>147</v>
+      <c r="AF10" t="n">
+        <v>2673260</v>
       </c>
       <c r="AG10" t="n">
         <v>2.98</v>
@@ -2691,52 +1443,52 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>205492</v>
       </c>
       <c r="C11" t="n">
         <v>0.85</v>
       </c>
-      <c r="D11" t="s">
-        <v>150</v>
+      <c r="D11" t="n">
+        <v>87318</v>
       </c>
       <c r="E11" t="n">
         <v>0.3</v>
       </c>
-      <c r="F11" t="s">
-        <v>151</v>
+      <c r="F11" t="n">
+        <v>-70575</v>
       </c>
       <c r="G11" t="n">
         <v>-0.23</v>
       </c>
-      <c r="H11" t="s">
-        <v>152</v>
+      <c r="H11" t="n">
+        <v>353156</v>
       </c>
       <c r="I11" t="n">
         <v>0.3</v>
       </c>
-      <c r="J11" t="s">
-        <v>153</v>
+      <c r="J11" t="n">
+        <v>17020</v>
       </c>
       <c r="K11" t="n">
         <v>0.06</v>
       </c>
-      <c r="L11" t="s">
-        <v>154</v>
+      <c r="L11" t="n">
+        <v>-151297</v>
       </c>
       <c r="M11" t="n">
         <v>-0.47</v>
       </c>
-      <c r="N11" t="s">
-        <v>155</v>
+      <c r="N11" t="n">
+        <v>186357</v>
       </c>
       <c r="O11" t="n">
         <v>0.62</v>
       </c>
-      <c r="P11" t="s">
-        <v>156</v>
+      <c r="P11" t="n">
+        <v>331223</v>
       </c>
       <c r="Q11" t="n">
         <v>0.28</v>
@@ -2751,16 +1503,12 @@
       <c r="Y11" t="s"/>
       <c r="Z11" t="s"/>
       <c r="AA11" t="s"/>
-      <c r="AB11" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB11" t="s"/>
+      <c r="AC11" t="s"/>
       <c r="AD11" t="s"/>
       <c r="AE11" t="s"/>
-      <c r="AF11" t="s">
-        <v>158</v>
+      <c r="AF11" t="n">
+        <v>-6193</v>
       </c>
       <c r="AG11" t="n">
         <v>-0.01</v>
@@ -2768,100 +1516,100 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" t="s">
-        <v>160</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>151905</v>
       </c>
       <c r="C12" t="n">
         <v>0.63</v>
       </c>
-      <c r="D12" t="s">
-        <v>161</v>
+      <c r="D12" t="n">
+        <v>207637</v>
       </c>
       <c r="E12" t="n">
         <v>0.72</v>
       </c>
-      <c r="F12" t="s">
-        <v>162</v>
+      <c r="F12" t="n">
+        <v>292232</v>
       </c>
       <c r="G12" t="n">
         <v>0.97</v>
       </c>
-      <c r="H12" t="s">
-        <v>163</v>
+      <c r="H12" t="n">
+        <v>585550</v>
       </c>
       <c r="I12" t="n">
         <v>0.5</v>
       </c>
-      <c r="J12" t="s">
-        <v>164</v>
+      <c r="J12" t="n">
+        <v>271861</v>
       </c>
       <c r="K12" t="n">
         <v>1.02</v>
       </c>
-      <c r="L12" t="s">
-        <v>165</v>
+      <c r="L12" t="n">
+        <v>365369</v>
       </c>
       <c r="M12" t="n">
         <v>1.15</v>
       </c>
-      <c r="N12" t="s">
-        <v>166</v>
+      <c r="N12" t="n">
+        <v>360453</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
-      <c r="P12" t="s">
-        <v>167</v>
+      <c r="P12" t="n">
+        <v>1250088</v>
       </c>
       <c r="Q12" t="n">
         <v>1.06</v>
       </c>
-      <c r="R12" t="s">
-        <v>168</v>
+      <c r="R12" t="n">
+        <v>181127</v>
       </c>
       <c r="S12" t="n">
         <v>0.84</v>
       </c>
-      <c r="T12" t="s">
-        <v>169</v>
+      <c r="T12" t="n">
+        <v>228634</v>
       </c>
       <c r="U12" t="n">
         <v>0.91</v>
       </c>
-      <c r="V12" t="s">
-        <v>170</v>
+      <c r="V12" t="n">
+        <v>221674</v>
       </c>
       <c r="W12" t="n">
         <v>0.98</v>
       </c>
-      <c r="X12" t="s">
-        <v>170</v>
+      <c r="X12" t="n">
+        <v>221674</v>
       </c>
       <c r="Y12" t="n">
         <v>0.98</v>
       </c>
-      <c r="Z12" t="s">
-        <v>171</v>
+      <c r="Z12" t="n">
+        <v>149029</v>
       </c>
       <c r="AA12" t="n">
         <v>0.84</v>
       </c>
-      <c r="AB12" t="s">
-        <v>172</v>
+      <c r="AB12" t="n">
+        <v>223903</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>173</v>
+        <v>0.98</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>285827</v>
       </c>
       <c r="AE12" t="n">
         <v>1.28</v>
       </c>
-      <c r="AF12" t="s">
-        <v>174</v>
+      <c r="AF12" t="n">
+        <v>979609</v>
       </c>
       <c r="AG12" t="n">
         <v>1.09</v>
@@ -2869,7 +1617,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -2887,50 +1635,50 @@
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s">
-        <v>176</v>
+      <c r="R13" t="n">
+        <v>-72913</v>
       </c>
       <c r="S13" t="n">
         <v>-0.34</v>
       </c>
-      <c r="T13" t="s">
-        <v>177</v>
+      <c r="T13" t="n">
+        <v>-96511</v>
       </c>
       <c r="U13" t="n">
         <v>-0.39</v>
       </c>
-      <c r="V13" t="s">
-        <v>178</v>
+      <c r="V13" t="n">
+        <v>322462</v>
       </c>
       <c r="W13" t="n">
         <v>1.42</v>
       </c>
-      <c r="X13" t="s">
-        <v>178</v>
+      <c r="X13" t="n">
+        <v>322462</v>
       </c>
       <c r="Y13" t="n">
         <v>1.42</v>
       </c>
-      <c r="Z13" t="s">
-        <v>179</v>
+      <c r="Z13" t="n">
+        <v>-99757</v>
       </c>
       <c r="AA13" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="AB13" t="s">
-        <v>180</v>
+      <c r="AB13" t="n">
+        <v>-127424</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>181</v>
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-252658</v>
       </c>
       <c r="AE13" t="n">
         <v>-1.13</v>
       </c>
-      <c r="AF13" t="s">
-        <v>182</v>
+      <c r="AF13" t="n">
+        <v>-493741</v>
       </c>
       <c r="AG13" t="n">
         <v>-0.55</v>
@@ -2938,100 +1686,100 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" t="s">
-        <v>184</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>221917</v>
       </c>
       <c r="C14" t="n">
         <v>0.92</v>
       </c>
-      <c r="D14" t="s">
-        <v>185</v>
+      <c r="D14" t="n">
+        <v>270217</v>
       </c>
       <c r="E14" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="F14" t="s">
-        <v>186</v>
+      <c r="F14" t="n">
+        <v>248458</v>
       </c>
       <c r="G14" t="n">
         <v>0.83</v>
       </c>
-      <c r="H14" t="s">
-        <v>187</v>
+      <c r="H14" t="n">
+        <v>1019186</v>
       </c>
       <c r="I14" t="n">
         <v>0.88</v>
       </c>
-      <c r="J14" t="s">
-        <v>188</v>
+      <c r="J14" t="n">
+        <v>233190</v>
       </c>
       <c r="K14" t="n">
         <v>0.87</v>
       </c>
-      <c r="L14" t="s">
-        <v>189</v>
+      <c r="L14" t="n">
+        <v>227869</v>
       </c>
       <c r="M14" t="n">
         <v>0.71</v>
       </c>
-      <c r="N14" t="s">
-        <v>190</v>
+      <c r="N14" t="n">
+        <v>238759</v>
       </c>
       <c r="O14" t="n">
         <v>0.79</v>
       </c>
-      <c r="P14" t="s">
-        <v>191</v>
+      <c r="P14" t="n">
+        <v>964818</v>
       </c>
       <c r="Q14" t="n">
         <v>0.82</v>
       </c>
-      <c r="R14" t="s">
-        <v>192</v>
+      <c r="R14" t="n">
+        <v>227338</v>
       </c>
       <c r="S14" t="n">
         <v>1.06</v>
       </c>
-      <c r="T14" t="s">
-        <v>193</v>
+      <c r="T14" t="n">
+        <v>229300</v>
       </c>
       <c r="U14" t="n">
         <v>0.92</v>
       </c>
-      <c r="V14" t="s">
-        <v>194</v>
+      <c r="V14" t="n">
+        <v>199106</v>
       </c>
       <c r="W14" t="n">
         <v>0.88</v>
       </c>
-      <c r="X14" t="s">
-        <v>194</v>
+      <c r="X14" t="n">
+        <v>199106</v>
       </c>
       <c r="Y14" t="n">
         <v>0.88</v>
       </c>
-      <c r="Z14" t="s">
-        <v>195</v>
+      <c r="Z14" t="n">
+        <v>186039</v>
       </c>
       <c r="AA14" t="n">
         <v>1.05</v>
       </c>
-      <c r="AB14" t="s">
-        <v>196</v>
+      <c r="AB14" t="n">
+        <v>174822</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>197</v>
+        <v>0.76</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>173775</v>
       </c>
       <c r="AE14" t="n">
         <v>0.78</v>
       </c>
-      <c r="AF14" t="s">
-        <v>198</v>
+      <c r="AF14" t="n">
+        <v>733021</v>
       </c>
       <c r="AG14" t="n">
         <v>0.82</v>
@@ -3039,100 +1787,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B15" t="s">
-        <v>200</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1999624</v>
       </c>
       <c r="C15" t="n">
         <v>8.289999999999999</v>
       </c>
-      <c r="D15" t="s">
-        <v>201</v>
+      <c r="D15" t="n">
+        <v>3802105</v>
       </c>
       <c r="E15" t="n">
         <v>13.26</v>
       </c>
-      <c r="F15" t="s">
-        <v>202</v>
+      <c r="F15" t="n">
+        <v>5344662</v>
       </c>
       <c r="G15" t="n">
         <v>17.75</v>
       </c>
-      <c r="H15" t="s">
-        <v>203</v>
+      <c r="H15" t="n">
+        <v>15118683</v>
       </c>
       <c r="I15" t="n">
         <v>13.02</v>
       </c>
-      <c r="J15" t="s">
-        <v>204</v>
+      <c r="J15" t="n">
+        <v>2791235</v>
       </c>
       <c r="K15" t="n">
         <v>10.45</v>
       </c>
-      <c r="L15" t="s">
-        <v>205</v>
+      <c r="L15" t="n">
+        <v>4828695</v>
       </c>
       <c r="M15" t="n">
         <v>15.15</v>
       </c>
-      <c r="N15" t="s">
-        <v>206</v>
+      <c r="N15" t="n">
+        <v>4934486</v>
       </c>
       <c r="O15" t="n">
         <v>16.4</v>
       </c>
-      <c r="P15" t="s">
-        <v>207</v>
+      <c r="P15" t="n">
+        <v>16583876</v>
       </c>
       <c r="Q15" t="n">
         <v>14.02</v>
       </c>
-      <c r="R15" t="s">
-        <v>208</v>
+      <c r="R15" t="n">
+        <v>974518</v>
       </c>
       <c r="S15" t="n">
         <v>4.55</v>
       </c>
-      <c r="T15" t="s">
-        <v>209</v>
+      <c r="T15" t="n">
+        <v>2727845</v>
       </c>
       <c r="U15" t="n">
         <v>10.91</v>
       </c>
-      <c r="V15" t="s">
-        <v>210</v>
+      <c r="V15" t="n">
+        <v>989427</v>
       </c>
       <c r="W15" t="n">
         <v>4.36</v>
       </c>
-      <c r="X15" t="s">
-        <v>210</v>
+      <c r="X15" t="n">
+        <v>989427</v>
       </c>
       <c r="Y15" t="n">
         <v>4.36</v>
       </c>
-      <c r="Z15" t="s">
-        <v>211</v>
+      <c r="Z15" t="n">
+        <v>94527</v>
       </c>
       <c r="AA15" t="n">
         <v>0.53</v>
       </c>
-      <c r="AB15" t="s">
-        <v>212</v>
+      <c r="AB15" t="n">
+        <v>2708932</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>213</v>
+        <v>11.81</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3283221</v>
       </c>
       <c r="AE15" t="n">
         <v>14.69</v>
       </c>
-      <c r="AF15" t="s">
-        <v>214</v>
+      <c r="AF15" t="n">
+        <v>8842075</v>
       </c>
       <c r="AG15" t="n">
         <v>9.869999999999999</v>
@@ -3140,100 +1888,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" t="s">
-        <v>216</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3284069</v>
       </c>
       <c r="C16" t="n">
         <v>13.62</v>
       </c>
-      <c r="D16" t="s">
-        <v>217</v>
+      <c r="D16" t="n">
+        <v>2580161</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
-      <c r="F16" t="s">
-        <v>218</v>
+      <c r="F16" t="n">
+        <v>6770642</v>
       </c>
       <c r="G16" t="n">
         <v>22.49</v>
       </c>
-      <c r="H16" t="s">
-        <v>219</v>
+      <c r="H16" t="n">
+        <v>21240565</v>
       </c>
       <c r="I16" t="n">
         <v>18.3</v>
       </c>
-      <c r="J16" t="s">
-        <v>220</v>
+      <c r="J16" t="n">
+        <v>4633027</v>
       </c>
       <c r="K16" t="n">
         <v>17.34</v>
       </c>
-      <c r="L16" t="s">
-        <v>221</v>
+      <c r="L16" t="n">
+        <v>432020</v>
       </c>
       <c r="M16" t="n">
         <v>1.36</v>
       </c>
-      <c r="N16" t="s">
-        <v>222</v>
+      <c r="N16" t="n">
+        <v>6106477</v>
       </c>
       <c r="O16" t="n">
         <v>20.29</v>
       </c>
-      <c r="P16" t="s">
-        <v>223</v>
+      <c r="P16" t="n">
+        <v>19809527</v>
       </c>
       <c r="Q16" t="n">
         <v>16.74</v>
       </c>
-      <c r="R16" t="s">
-        <v>224</v>
+      <c r="R16" t="n">
+        <v>202295</v>
       </c>
       <c r="S16" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="T16" t="s">
-        <v>225</v>
+      <c r="T16" t="n">
+        <v>588453</v>
       </c>
       <c r="U16" t="n">
         <v>2.35</v>
       </c>
-      <c r="V16" t="s">
-        <v>226</v>
+      <c r="V16" t="n">
+        <v>699311</v>
       </c>
       <c r="W16" t="n">
         <v>3.08</v>
       </c>
-      <c r="X16" t="s">
-        <v>226</v>
+      <c r="X16" t="n">
+        <v>699311</v>
       </c>
       <c r="Y16" t="n">
         <v>3.08</v>
       </c>
-      <c r="Z16" t="s">
-        <v>227</v>
+      <c r="Z16" t="n">
+        <v>-733984</v>
       </c>
       <c r="AA16" t="n">
         <v>-4.14</v>
       </c>
-      <c r="AB16" t="s">
-        <v>228</v>
+      <c r="AB16" t="n">
+        <v>-764131</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>229</v>
+        <v>-3.33</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1414806</v>
       </c>
       <c r="AE16" t="n">
         <v>6.33</v>
       </c>
-      <c r="AF16" t="s">
-        <v>230</v>
+      <c r="AF16" t="n">
+        <v>1854361</v>
       </c>
       <c r="AG16" t="n">
         <v>2.07</v>
@@ -3241,100 +1989,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" t="s">
-        <v>232</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1413035</v>
       </c>
       <c r="C17" t="n">
         <v>5.86</v>
       </c>
-      <c r="D17" t="s">
-        <v>233</v>
+      <c r="D17" t="n">
+        <v>2586787</v>
       </c>
       <c r="E17" t="n">
         <v>9.02</v>
       </c>
-      <c r="F17" t="s">
-        <v>234</v>
+      <c r="F17" t="n">
+        <v>3594193</v>
       </c>
       <c r="G17" t="n">
         <v>11.94</v>
       </c>
-      <c r="H17" t="s">
-        <v>235</v>
+      <c r="H17" t="n">
+        <v>10026731</v>
       </c>
       <c r="I17" t="n">
         <v>8.640000000000001</v>
       </c>
-      <c r="J17" t="s">
-        <v>236</v>
+      <c r="J17" t="n">
+        <v>1833139</v>
       </c>
       <c r="K17" t="n">
         <v>6.86</v>
       </c>
-      <c r="L17" t="s">
-        <v>237</v>
+      <c r="L17" t="n">
+        <v>3195746</v>
       </c>
       <c r="M17" t="n">
         <v>10.03</v>
       </c>
-      <c r="N17" t="s">
-        <v>238</v>
+      <c r="N17" t="n">
+        <v>3215834</v>
       </c>
       <c r="O17" t="n">
         <v>10.69</v>
       </c>
-      <c r="P17" t="s">
-        <v>239</v>
+      <c r="P17" t="n">
+        <v>10828868</v>
       </c>
       <c r="Q17" t="n">
         <v>9.15</v>
       </c>
-      <c r="R17" t="s">
-        <v>240</v>
+      <c r="R17" t="n">
+        <v>808778</v>
       </c>
       <c r="S17" t="n">
         <v>3.77</v>
       </c>
-      <c r="T17" t="s">
-        <v>241</v>
+      <c r="T17" t="n">
+        <v>2243129</v>
       </c>
       <c r="U17" t="n">
         <v>8.970000000000001</v>
       </c>
-      <c r="V17" t="s">
-        <v>242</v>
+      <c r="V17" t="n">
+        <v>948745</v>
       </c>
       <c r="W17" t="n">
         <v>4.18</v>
       </c>
-      <c r="X17" t="s">
-        <v>242</v>
+      <c r="X17" t="n">
+        <v>948745</v>
       </c>
       <c r="Y17" t="n">
         <v>4.18</v>
       </c>
-      <c r="Z17" t="s">
-        <v>243</v>
+      <c r="Z17" t="n">
+        <v>220995</v>
       </c>
       <c r="AA17" t="n">
         <v>1.25</v>
       </c>
-      <c r="AB17" t="s">
-        <v>244</v>
+      <c r="AB17" t="n">
+        <v>2003745</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>245</v>
+        <v>8.73</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2321292</v>
       </c>
       <c r="AE17" t="n">
         <v>10.39</v>
       </c>
-      <c r="AF17" t="s">
-        <v>246</v>
+      <c r="AF17" t="n">
+        <v>6358452</v>
       </c>
       <c r="AG17" t="n">
         <v>7.1</v>
@@ -3342,100 +2090,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" t="s">
-        <v>248</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1911110</v>
       </c>
       <c r="C18" t="n">
         <v>7.93</v>
       </c>
-      <c r="D18" t="s">
-        <v>249</v>
+      <c r="D18" t="n">
+        <v>949640</v>
       </c>
       <c r="E18" t="n">
         <v>3.31</v>
       </c>
-      <c r="F18" t="s">
-        <v>250</v>
+      <c r="F18" t="n">
+        <v>5025600</v>
       </c>
       <c r="G18" t="n">
         <v>16.69</v>
       </c>
-      <c r="H18" t="s">
-        <v>251</v>
+      <c r="H18" t="n">
+        <v>14336481</v>
       </c>
       <c r="I18" t="n">
         <v>12.35</v>
       </c>
-      <c r="J18" t="s">
-        <v>252</v>
+      <c r="J18" t="n">
+        <v>4015175</v>
       </c>
       <c r="K18" t="n">
         <v>15.03</v>
       </c>
-      <c r="L18" t="s">
-        <v>253</v>
+      <c r="L18" t="n">
+        <v>-754894</v>
       </c>
       <c r="M18" t="n">
         <v>-2.37</v>
       </c>
-      <c r="N18" t="s">
-        <v>254</v>
+      <c r="N18" t="n">
+        <v>3621052</v>
       </c>
       <c r="O18" t="n">
         <v>12.03</v>
       </c>
-      <c r="P18" t="s">
-        <v>255</v>
+      <c r="P18" t="n">
+        <v>13340699</v>
       </c>
       <c r="Q18" t="n">
         <v>11.27</v>
       </c>
-      <c r="R18" t="s">
-        <v>256</v>
+      <c r="R18" t="n">
+        <v>349121</v>
       </c>
       <c r="S18" t="n">
         <v>1.63</v>
       </c>
-      <c r="T18" t="s">
-        <v>257</v>
+      <c r="T18" t="n">
+        <v>512044</v>
       </c>
       <c r="U18" t="n">
         <v>2.05</v>
       </c>
-      <c r="V18" t="s">
-        <v>258</v>
+      <c r="V18" t="n">
+        <v>-255288</v>
       </c>
       <c r="W18" t="n">
         <v>-1.13</v>
       </c>
-      <c r="X18" t="s">
-        <v>258</v>
+      <c r="X18" t="n">
+        <v>-255288</v>
       </c>
       <c r="Y18" t="n">
         <v>-1.13</v>
       </c>
-      <c r="Z18" t="s">
-        <v>259</v>
+      <c r="Z18" t="n">
+        <v>-333525</v>
       </c>
       <c r="AA18" t="n">
         <v>-1.88</v>
       </c>
-      <c r="AB18" t="s">
-        <v>260</v>
+      <c r="AB18" t="n">
+        <v>-464462</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.86</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>261</v>
+        <v>-2.02</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1617077</v>
       </c>
       <c r="AE18" t="n">
         <v>7.24</v>
       </c>
-      <c r="AF18" t="s">
-        <v>262</v>
+      <c r="AF18" t="n">
+        <v>2411113</v>
       </c>
       <c r="AG18" t="n">
         <v>2.69</v>
@@ -3443,100 +2191,100 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" t="s">
-        <v>264</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2026729</v>
       </c>
       <c r="C19" t="n">
         <v>8.4</v>
       </c>
-      <c r="D19" t="s">
-        <v>265</v>
+      <c r="D19" t="n">
+        <v>4588992</v>
       </c>
       <c r="E19" t="n">
         <v>16.01</v>
       </c>
-      <c r="F19" t="s">
-        <v>266</v>
+      <c r="F19" t="n">
+        <v>5910634</v>
       </c>
       <c r="G19" t="n">
         <v>19.63</v>
       </c>
-      <c r="H19" t="s">
-        <v>267</v>
+      <c r="H19" t="n">
+        <v>17775975</v>
       </c>
       <c r="I19" t="n">
         <v>15.31</v>
       </c>
-      <c r="J19" t="s">
-        <v>268</v>
+      <c r="J19" t="n">
+        <v>3684224</v>
       </c>
       <c r="K19" t="n">
         <v>13.79</v>
       </c>
-      <c r="L19" t="s">
-        <v>269</v>
+      <c r="L19" t="n">
+        <v>5938317</v>
       </c>
       <c r="M19" t="n">
         <v>18.63</v>
       </c>
-      <c r="N19" t="s">
-        <v>270</v>
+      <c r="N19" t="n">
+        <v>5544164</v>
       </c>
       <c r="O19" t="n">
         <v>18.42</v>
       </c>
-      <c r="P19" t="s">
-        <v>271</v>
+      <c r="P19" t="n">
+        <v>19857669</v>
       </c>
       <c r="Q19" t="n">
         <v>16.78</v>
       </c>
-      <c r="R19" t="s">
-        <v>272</v>
+      <c r="R19" t="n">
+        <v>1693508</v>
       </c>
       <c r="S19" t="n">
         <v>7.9</v>
       </c>
-      <c r="T19" t="s">
-        <v>273</v>
+      <c r="T19" t="n">
+        <v>2917631</v>
       </c>
       <c r="U19" t="n">
         <v>11.67</v>
       </c>
-      <c r="V19" t="s">
-        <v>274</v>
+      <c r="V19" t="n">
+        <v>1996477</v>
       </c>
       <c r="W19" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="X19" t="s">
-        <v>274</v>
+      <c r="X19" t="n">
+        <v>1996477</v>
       </c>
       <c r="Y19" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Z19" t="s">
-        <v>275</v>
+      <c r="Z19" t="n">
+        <v>483889</v>
       </c>
       <c r="AA19" t="n">
         <v>2.73</v>
       </c>
-      <c r="AB19" t="s">
-        <v>276</v>
+      <c r="AB19" t="n">
+        <v>3770663</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>277</v>
+        <v>16.44</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3780535</v>
       </c>
       <c r="AE19" t="n">
         <v>16.92</v>
       </c>
-      <c r="AF19" t="s">
-        <v>278</v>
+      <c r="AF19" t="n">
+        <v>13034136</v>
       </c>
       <c r="AG19" t="n">
         <v>14.55</v>
@@ -3544,100 +2292,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B20" t="s">
-        <v>280</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>314060</v>
       </c>
       <c r="C20" t="n">
         <v>1.3</v>
       </c>
-      <c r="D20" t="s">
-        <v>281</v>
+      <c r="D20" t="n">
+        <v>19782</v>
       </c>
       <c r="E20" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F20" t="s">
-        <v>282</v>
+      <c r="F20" t="n">
+        <v>607787</v>
       </c>
       <c r="G20" t="n">
         <v>2.02</v>
       </c>
-      <c r="H20" t="s">
-        <v>283</v>
+      <c r="H20" t="n">
+        <v>828481</v>
       </c>
       <c r="I20" t="n">
         <v>0.71</v>
       </c>
-      <c r="J20" t="s">
-        <v>284</v>
+      <c r="J20" t="n">
+        <v>-133378</v>
       </c>
       <c r="K20" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L20" t="s">
-        <v>285</v>
+      <c r="L20" t="n">
+        <v>347880</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
-      <c r="N20" t="s">
-        <v>286</v>
+      <c r="N20" t="n">
+        <v>552259</v>
       </c>
       <c r="O20" t="n">
         <v>1.84</v>
       </c>
-      <c r="P20" t="s">
-        <v>287</v>
+      <c r="P20" t="n">
+        <v>1341051</v>
       </c>
       <c r="Q20" t="n">
         <v>1.13</v>
       </c>
-      <c r="R20" t="s">
-        <v>288</v>
+      <c r="R20" t="n">
+        <v>-223641</v>
       </c>
       <c r="S20" t="n">
         <v>-1.04</v>
       </c>
-      <c r="T20" t="s">
-        <v>289</v>
+      <c r="T20" t="n">
+        <v>324878</v>
       </c>
       <c r="U20" t="n">
         <v>1.3</v>
       </c>
-      <c r="V20" t="s">
-        <v>290</v>
+      <c r="V20" t="n">
+        <v>-825166</v>
       </c>
       <c r="W20" t="n">
         <v>-3.64</v>
       </c>
-      <c r="X20" t="s">
-        <v>290</v>
+      <c r="X20" t="n">
+        <v>-825166</v>
       </c>
       <c r="Y20" t="n">
         <v>-3.64</v>
       </c>
-      <c r="Z20" t="s">
-        <v>291</v>
+      <c r="Z20" t="n">
+        <v>-206042</v>
       </c>
       <c r="AA20" t="n">
         <v>-1.16</v>
       </c>
-      <c r="AB20" t="s">
-        <v>292</v>
+      <c r="AB20" t="n">
+        <v>-302465</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1.08</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>293</v>
+        <v>-1.32</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>244533</v>
       </c>
       <c r="AE20" t="n">
         <v>1.09</v>
       </c>
-      <c r="AF20" t="s">
-        <v>294</v>
+      <c r="AF20" t="n">
+        <v>-1518801</v>
       </c>
       <c r="AG20" t="n">
         <v>-1.7</v>
@@ -3645,100 +2393,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" t="s">
-        <v>296</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20990175</v>
       </c>
       <c r="C21" t="n">
         <v>87.05</v>
       </c>
-      <c r="D21" t="s">
-        <v>297</v>
+      <c r="D21" t="n">
+        <v>23048175</v>
       </c>
       <c r="E21" t="n">
         <v>80.39</v>
       </c>
-      <c r="F21" t="s">
-        <v>81</v>
+      <c r="F21" t="n">
+        <v>23052350</v>
       </c>
       <c r="G21" t="n">
         <v>76.56999999999999</v>
       </c>
-      <c r="H21" t="s">
-        <v>298</v>
+      <c r="H21" t="n">
+        <v>93275950</v>
       </c>
       <c r="I21" t="n">
         <v>80.34</v>
       </c>
-      <c r="J21" t="s">
-        <v>299</v>
+      <c r="J21" t="n">
+        <v>21852093</v>
       </c>
       <c r="K21" t="n">
         <v>81.79000000000001</v>
       </c>
-      <c r="L21" t="s">
-        <v>300</v>
+      <c r="L21" t="n">
+        <v>24732219</v>
       </c>
       <c r="M21" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="N21" t="s">
-        <v>301</v>
+      <c r="N21" t="n">
+        <v>23421140</v>
       </c>
       <c r="O21" t="n">
         <v>77.81999999999999</v>
       </c>
-      <c r="P21" t="s">
-        <v>302</v>
+      <c r="P21" t="n">
+        <v>93453214</v>
       </c>
       <c r="Q21" t="n">
         <v>78.98</v>
       </c>
-      <c r="R21" t="s">
-        <v>303</v>
+      <c r="R21" t="n">
+        <v>18579134</v>
       </c>
       <c r="S21" t="n">
         <v>86.66</v>
       </c>
-      <c r="T21" t="s">
-        <v>304</v>
+      <c r="T21" t="n">
+        <v>21076772</v>
       </c>
       <c r="U21" t="n">
         <v>84.33</v>
       </c>
-      <c r="V21" t="s">
-        <v>305</v>
+      <c r="V21" t="n">
+        <v>19378040</v>
       </c>
       <c r="W21" t="n">
         <v>85.43000000000001</v>
       </c>
-      <c r="X21" t="s">
-        <v>305</v>
+      <c r="X21" t="n">
+        <v>19378040</v>
       </c>
       <c r="Y21" t="n">
         <v>85.43000000000001</v>
       </c>
-      <c r="Z21" t="s">
-        <v>306</v>
+      <c r="Z21" t="n">
+        <v>16138503</v>
       </c>
       <c r="AA21" t="n">
         <v>91.05</v>
       </c>
-      <c r="AB21" t="s">
-        <v>307</v>
+      <c r="AB21" t="n">
+        <v>17880863</v>
       </c>
       <c r="AC21" t="n">
-        <v>84.48999999999999</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>308</v>
+        <v>77.94</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17390791</v>
       </c>
       <c r="AE21" t="n">
         <v>77.81</v>
       </c>
-      <c r="AF21" t="s">
-        <v>309</v>
+      <c r="AF21" t="n">
+        <v>71583302</v>
       </c>
       <c r="AG21" t="n">
         <v>79.92</v>
@@ -3746,100 +2494,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B22" t="s">
-        <v>311</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>24114047</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
-      <c r="D22" t="s">
-        <v>312</v>
+      <c r="D22" t="n">
+        <v>28670184</v>
       </c>
       <c r="E22" t="n">
         <v>100</v>
       </c>
-      <c r="F22" t="s">
-        <v>313</v>
+      <c r="F22" t="n">
+        <v>30106839</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
       </c>
-      <c r="H22" t="s">
-        <v>314</v>
+      <c r="H22" t="n">
+        <v>116098947</v>
       </c>
       <c r="I22" t="n">
         <v>100</v>
       </c>
-      <c r="J22" t="s">
-        <v>315</v>
+      <c r="J22" t="n">
+        <v>26716227</v>
       </c>
       <c r="K22" t="n">
         <v>100</v>
       </c>
-      <c r="L22" t="s">
-        <v>316</v>
+      <c r="L22" t="n">
+        <v>31873459</v>
       </c>
       <c r="M22" t="n">
         <v>100</v>
       </c>
-      <c r="N22" t="s">
-        <v>317</v>
+      <c r="N22" t="n">
+        <v>30094955</v>
       </c>
       <c r="O22" t="n">
         <v>100</v>
       </c>
-      <c r="P22" t="s">
-        <v>318</v>
+      <c r="P22" t="n">
+        <v>118325809</v>
       </c>
       <c r="Q22" t="n">
         <v>100</v>
       </c>
-      <c r="R22" t="s">
-        <v>319</v>
+      <c r="R22" t="n">
+        <v>21440142</v>
       </c>
       <c r="S22" t="n">
         <v>100</v>
       </c>
-      <c r="T22" t="s">
-        <v>320</v>
+      <c r="T22" t="n">
+        <v>24994185</v>
       </c>
       <c r="U22" t="n">
         <v>100</v>
       </c>
-      <c r="V22" t="s">
-        <v>321</v>
+      <c r="V22" t="n">
+        <v>22683975</v>
       </c>
       <c r="W22" t="n">
         <v>100</v>
       </c>
-      <c r="X22" t="s">
-        <v>321</v>
+      <c r="X22" t="n">
+        <v>22683975</v>
       </c>
       <c r="Y22" t="n">
         <v>100</v>
       </c>
-      <c r="Z22" t="s">
-        <v>322</v>
+      <c r="Z22" t="n">
+        <v>17724112</v>
       </c>
       <c r="AA22" t="n">
         <v>100</v>
       </c>
-      <c r="AB22" t="s">
-        <v>323</v>
+      <c r="AB22" t="n">
+        <v>22942147</v>
       </c>
       <c r="AC22" t="n">
         <v>100</v>
       </c>
-      <c r="AD22" t="s">
-        <v>324</v>
+      <c r="AD22" t="n">
+        <v>22350039</v>
       </c>
       <c r="AE22" t="n">
         <v>100</v>
       </c>
-      <c r="AF22" t="s">
-        <v>325</v>
+      <c r="AF22" t="n">
+        <v>89564306</v>
       </c>
       <c r="AG22" t="n">
         <v>100</v>
@@ -3847,100 +2595,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" t="s">
-        <v>327</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3123872</v>
       </c>
       <c r="C23" t="n">
         <v>12.95</v>
       </c>
-      <c r="D23" t="s">
-        <v>328</v>
+      <c r="D23" t="n">
+        <v>5622009</v>
       </c>
       <c r="E23" t="n">
         <v>19.61</v>
       </c>
-      <c r="F23" t="s">
-        <v>329</v>
+      <c r="F23" t="n">
+        <v>7054489</v>
       </c>
       <c r="G23" t="n">
         <v>23.43</v>
       </c>
-      <c r="H23" t="s">
-        <v>330</v>
+      <c r="H23" t="n">
+        <v>22822997</v>
       </c>
       <c r="I23" t="n">
         <v>19.66</v>
       </c>
-      <c r="J23" t="s">
-        <v>331</v>
+      <c r="J23" t="n">
+        <v>4864134</v>
       </c>
       <c r="K23" t="n">
         <v>18.21</v>
       </c>
-      <c r="L23" t="s">
-        <v>332</v>
+      <c r="L23" t="n">
+        <v>7141240</v>
       </c>
       <c r="M23" t="n">
         <v>22.4</v>
       </c>
-      <c r="N23" t="s">
-        <v>333</v>
+      <c r="N23" t="n">
+        <v>6673815</v>
       </c>
       <c r="O23" t="n">
         <v>22.18</v>
       </c>
-      <c r="P23" t="s">
-        <v>334</v>
+      <c r="P23" t="n">
+        <v>24872595</v>
       </c>
       <c r="Q23" t="n">
         <v>21.02</v>
       </c>
-      <c r="R23" t="s">
-        <v>335</v>
+      <c r="R23" t="n">
+        <v>2861008</v>
       </c>
       <c r="S23" t="n">
         <v>13.34</v>
       </c>
-      <c r="T23" t="s">
-        <v>336</v>
+      <c r="T23" t="n">
+        <v>3917413</v>
       </c>
       <c r="U23" t="n">
         <v>15.67</v>
       </c>
-      <c r="V23" t="s">
-        <v>337</v>
+      <c r="V23" t="n">
+        <v>3305935</v>
       </c>
       <c r="W23" t="n">
         <v>14.57</v>
       </c>
-      <c r="X23" t="s">
-        <v>337</v>
+      <c r="X23" t="n">
+        <v>3305935</v>
       </c>
       <c r="Y23" t="n">
         <v>14.57</v>
       </c>
-      <c r="Z23" t="s">
-        <v>338</v>
+      <c r="Z23" t="n">
+        <v>1585609</v>
       </c>
       <c r="AA23" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="AB23" t="s">
-        <v>339</v>
+      <c r="AB23" t="n">
+        <v>5061284</v>
       </c>
       <c r="AC23" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>340</v>
+        <v>22.06</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>4959248</v>
       </c>
       <c r="AE23" t="n">
         <v>22.19</v>
       </c>
-      <c r="AF23" t="s">
-        <v>341</v>
+      <c r="AF23" t="n">
+        <v>17981004</v>
       </c>
       <c r="AG23" t="n">
         <v>20.08</v>
@@ -3948,100 +2696,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B24" t="s">
-        <v>327</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3123872</v>
       </c>
       <c r="C24" t="n">
         <v>12.95</v>
       </c>
-      <c r="D24" t="s">
-        <v>328</v>
+      <c r="D24" t="n">
+        <v>5622009</v>
       </c>
       <c r="E24" t="n">
         <v>19.61</v>
       </c>
-      <c r="F24" t="s">
-        <v>329</v>
+      <c r="F24" t="n">
+        <v>7054489</v>
       </c>
       <c r="G24" t="n">
         <v>23.43</v>
       </c>
-      <c r="H24" t="s">
-        <v>330</v>
+      <c r="H24" t="n">
+        <v>22822997</v>
       </c>
       <c r="I24" t="n">
         <v>19.66</v>
       </c>
-      <c r="J24" t="s">
-        <v>331</v>
+      <c r="J24" t="n">
+        <v>4864134</v>
       </c>
       <c r="K24" t="n">
         <v>18.21</v>
       </c>
-      <c r="L24" t="s">
-        <v>332</v>
+      <c r="L24" t="n">
+        <v>7141240</v>
       </c>
       <c r="M24" t="n">
         <v>22.4</v>
       </c>
-      <c r="N24" t="s">
-        <v>333</v>
+      <c r="N24" t="n">
+        <v>6673815</v>
       </c>
       <c r="O24" t="n">
         <v>22.18</v>
       </c>
-      <c r="P24" t="s">
-        <v>334</v>
+      <c r="P24" t="n">
+        <v>24872595</v>
       </c>
       <c r="Q24" t="n">
         <v>21.02</v>
       </c>
-      <c r="R24" t="s">
-        <v>335</v>
+      <c r="R24" t="n">
+        <v>2861008</v>
       </c>
       <c r="S24" t="n">
         <v>13.34</v>
       </c>
-      <c r="T24" t="s">
-        <v>336</v>
+      <c r="T24" t="n">
+        <v>3917413</v>
       </c>
       <c r="U24" t="n">
         <v>15.67</v>
       </c>
-      <c r="V24" t="s">
-        <v>337</v>
+      <c r="V24" t="n">
+        <v>3305935</v>
       </c>
       <c r="W24" t="n">
         <v>14.57</v>
       </c>
-      <c r="X24" t="s">
-        <v>337</v>
+      <c r="X24" t="n">
+        <v>3305935</v>
       </c>
       <c r="Y24" t="n">
         <v>14.57</v>
       </c>
-      <c r="Z24" t="s">
-        <v>338</v>
+      <c r="Z24" t="n">
+        <v>1585609</v>
       </c>
       <c r="AA24" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="AB24" t="s">
-        <v>339</v>
+      <c r="AB24" t="n">
+        <v>5061284</v>
       </c>
       <c r="AC24" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>340</v>
+        <v>22.06</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>4959248</v>
       </c>
       <c r="AE24" t="n">
         <v>22.19</v>
       </c>
-      <c r="AF24" t="s">
-        <v>341</v>
+      <c r="AF24" t="n">
+        <v>17981004</v>
       </c>
       <c r="AG24" t="n">
         <v>20.08</v>
@@ -4049,100 +2797,100 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B25" t="s">
-        <v>344</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1097143</v>
       </c>
       <c r="C25" t="n">
         <v>4.55</v>
       </c>
-      <c r="D25" t="s">
-        <v>345</v>
+      <c r="D25" t="n">
+        <v>1033017</v>
       </c>
       <c r="E25" t="n">
         <v>3.6</v>
       </c>
-      <c r="F25" t="s">
-        <v>346</v>
+      <c r="F25" t="n">
+        <v>1143855</v>
       </c>
       <c r="G25" t="n">
         <v>3.8</v>
       </c>
-      <c r="H25" t="s">
-        <v>347</v>
+      <c r="H25" t="n">
+        <v>5047022</v>
       </c>
       <c r="I25" t="n">
         <v>4.35</v>
       </c>
-      <c r="J25" t="s">
-        <v>348</v>
+      <c r="J25" t="n">
+        <v>1179910</v>
       </c>
       <c r="K25" t="n">
         <v>4.42</v>
       </c>
-      <c r="L25" t="s">
-        <v>349</v>
+      <c r="L25" t="n">
+        <v>1202923</v>
       </c>
       <c r="M25" t="n">
         <v>3.77</v>
       </c>
-      <c r="N25" t="s">
-        <v>350</v>
+      <c r="N25" t="n">
+        <v>1129651</v>
       </c>
       <c r="O25" t="n">
         <v>3.75</v>
       </c>
-      <c r="P25" t="s">
-        <v>351</v>
+      <c r="P25" t="n">
+        <v>5014926</v>
       </c>
       <c r="Q25" t="n">
         <v>4.24</v>
       </c>
-      <c r="R25" t="s">
-        <v>352</v>
+      <c r="R25" t="n">
+        <v>1167500</v>
       </c>
       <c r="S25" t="n">
         <v>5.45</v>
       </c>
-      <c r="T25" t="s">
-        <v>353</v>
+      <c r="T25" t="n">
+        <v>999782</v>
       </c>
       <c r="U25" t="n">
         <v>4</v>
       </c>
-      <c r="V25" t="s">
-        <v>354</v>
+      <c r="V25" t="n">
+        <v>1309458</v>
       </c>
       <c r="W25" t="n">
         <v>5.77</v>
       </c>
-      <c r="X25" t="s">
-        <v>354</v>
+      <c r="X25" t="n">
+        <v>1309458</v>
       </c>
       <c r="Y25" t="n">
         <v>5.77</v>
       </c>
-      <c r="Z25" t="s">
-        <v>355</v>
+      <c r="Z25" t="n">
+        <v>1101720</v>
       </c>
       <c r="AA25" t="n">
         <v>6.22</v>
       </c>
-      <c r="AB25" t="s">
-        <v>356</v>
+      <c r="AB25" t="n">
+        <v>1290621</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>357</v>
+        <v>5.63</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1178713</v>
       </c>
       <c r="AE25" t="n">
         <v>5.27</v>
       </c>
-      <c r="AF25" t="s">
-        <v>358</v>
+      <c r="AF25" t="n">
+        <v>4946868</v>
       </c>
       <c r="AG25" t="n">
         <v>5.52</v>
@@ -4150,52 +2898,52 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B26" t="s">
-        <v>360</v>
+        <v>56</v>
+      </c>
+      <c r="B26" t="n">
+        <v>23654</v>
       </c>
       <c r="C26" t="n">
         <v>0.1</v>
       </c>
-      <c r="D26" t="s">
-        <v>361</v>
+      <c r="D26" t="n">
+        <v>8173</v>
       </c>
       <c r="E26" t="n">
         <v>0.03</v>
       </c>
-      <c r="F26" t="s">
-        <v>362</v>
+      <c r="F26" t="n">
+        <v>-13755</v>
       </c>
       <c r="G26" t="n">
         <v>-0.05</v>
       </c>
-      <c r="H26" t="s">
-        <v>363</v>
+      <c r="H26" t="n">
+        <v>47427</v>
       </c>
       <c r="I26" t="n">
         <v>0.04</v>
       </c>
-      <c r="J26" t="s">
-        <v>364</v>
+      <c r="J26" t="n">
+        <v>7397</v>
       </c>
       <c r="K26" t="n">
         <v>0.03</v>
       </c>
-      <c r="L26" t="s">
-        <v>365</v>
+      <c r="L26" t="n">
+        <v>-9616</v>
       </c>
       <c r="M26" t="n">
         <v>-0.03</v>
       </c>
-      <c r="N26" t="s">
-        <v>366</v>
+      <c r="N26" t="n">
+        <v>15128</v>
       </c>
       <c r="O26" t="n">
         <v>0.05</v>
       </c>
-      <c r="P26" t="s">
-        <v>367</v>
+      <c r="P26" t="n">
+        <v>21883</v>
       </c>
       <c r="Q26" t="n">
         <v>0.02</v>
@@ -4219,7 +2967,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>368</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -4237,50 +2985,50 @@
       <c r="O27" t="s"/>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s">
-        <v>369</v>
+      <c r="R27" t="n">
+        <v>-24727</v>
       </c>
       <c r="S27" t="n">
         <v>-0.12</v>
       </c>
-      <c r="T27" t="s">
-        <v>370</v>
+      <c r="T27" t="n">
+        <v>1523</v>
       </c>
       <c r="U27" t="n">
         <v>0.01</v>
       </c>
-      <c r="V27" t="s">
-        <v>371</v>
+      <c r="V27" t="n">
+        <v>2988</v>
       </c>
       <c r="W27" t="n">
         <v>0.01</v>
       </c>
-      <c r="X27" t="s">
-        <v>371</v>
+      <c r="X27" t="n">
+        <v>2988</v>
       </c>
       <c r="Y27" t="n">
         <v>0.01</v>
       </c>
-      <c r="Z27" t="s">
-        <v>372</v>
+      <c r="Z27" t="n">
+        <v>-10093</v>
       </c>
       <c r="AA27" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AB27" t="s">
-        <v>373</v>
+      <c r="AB27" t="n">
+        <v>853</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>374</v>
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>95</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
       </c>
-      <c r="AF27" t="s">
-        <v>375</v>
+      <c r="AF27" t="n">
+        <v>4022</v>
       </c>
       <c r="AG27" t="n">
         <v>0</v>
@@ -4288,100 +3036,100 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B28" t="s">
-        <v>377</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>11268</v>
       </c>
       <c r="C28" t="n">
         <v>0.05</v>
       </c>
-      <c r="D28" t="s">
-        <v>378</v>
+      <c r="D28" t="n">
+        <v>11078</v>
       </c>
       <c r="E28" t="n">
         <v>0.04</v>
       </c>
-      <c r="F28" t="s">
-        <v>379</v>
+      <c r="F28" t="n">
+        <v>10419</v>
       </c>
       <c r="G28" t="n">
         <v>0.03</v>
       </c>
-      <c r="H28" t="s">
-        <v>380</v>
+      <c r="H28" t="n">
+        <v>43663</v>
       </c>
       <c r="I28" t="n">
         <v>0.04</v>
       </c>
-      <c r="J28" t="s">
-        <v>381</v>
+      <c r="J28" t="n">
+        <v>10271</v>
       </c>
       <c r="K28" t="n">
         <v>0.04</v>
       </c>
-      <c r="L28" t="s">
-        <v>382</v>
+      <c r="L28" t="n">
+        <v>8987</v>
       </c>
       <c r="M28" t="n">
         <v>0.03</v>
       </c>
-      <c r="N28" t="s">
-        <v>383</v>
+      <c r="N28" t="n">
+        <v>10163</v>
       </c>
       <c r="O28" t="n">
         <v>0.03</v>
       </c>
-      <c r="P28" t="s">
-        <v>384</v>
+      <c r="P28" t="n">
+        <v>38678</v>
       </c>
       <c r="Q28" t="n">
         <v>0.03</v>
       </c>
-      <c r="R28" t="s">
-        <v>385</v>
+      <c r="R28" t="n">
+        <v>6399</v>
       </c>
       <c r="S28" t="n">
         <v>0.03</v>
       </c>
-      <c r="T28" t="s">
-        <v>386</v>
+      <c r="T28" t="n">
+        <v>4508</v>
       </c>
       <c r="U28" t="n">
         <v>0.02</v>
       </c>
-      <c r="V28" t="s">
-        <v>387</v>
+      <c r="V28" t="n">
+        <v>10487</v>
       </c>
       <c r="W28" t="n">
         <v>0.05</v>
       </c>
-      <c r="X28" t="s">
-        <v>387</v>
+      <c r="X28" t="n">
+        <v>10487</v>
       </c>
       <c r="Y28" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z28" t="s">
-        <v>388</v>
+      <c r="Z28" t="n">
+        <v>5503</v>
       </c>
       <c r="AA28" t="n">
         <v>0.03</v>
       </c>
-      <c r="AB28" t="s">
-        <v>389</v>
+      <c r="AB28" t="n">
+        <v>4696</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>390</v>
+        <v>0.02</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>5777</v>
       </c>
       <c r="AE28" t="n">
         <v>0.03</v>
       </c>
-      <c r="AF28" t="s">
-        <v>391</v>
+      <c r="AF28" t="n">
+        <v>20618</v>
       </c>
       <c r="AG28" t="n">
         <v>0.02</v>
@@ -4389,7 +3137,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>392</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -4397,8 +3145,8 @@
       <c r="E29" t="s"/>
       <c r="F29" t="s"/>
       <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>393</v>
+      <c r="H29" t="n">
+        <v>400247</v>
       </c>
       <c r="I29" t="n">
         <v>0.34</v>
@@ -4409,8 +3157,8 @@
       <c r="M29" t="s"/>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
-      <c r="P29" t="s">
-        <v>394</v>
+      <c r="P29" t="n">
+        <v>-72678</v>
       </c>
       <c r="Q29" t="n">
         <v>-0.06</v>
@@ -4425,16 +3173,12 @@
       <c r="Y29" t="s"/>
       <c r="Z29" t="s"/>
       <c r="AA29" t="s"/>
-      <c r="AB29" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>-0.7</v>
-      </c>
+      <c r="AB29" t="s"/>
+      <c r="AC29" t="s"/>
       <c r="AD29" t="s"/>
       <c r="AE29" t="s"/>
-      <c r="AF29" t="s">
-        <v>396</v>
+      <c r="AF29" t="n">
+        <v>385369</v>
       </c>
       <c r="AG29" t="n">
         <v>0.43</v>
@@ -4442,169 +3186,169 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B30" t="s">
-        <v>117</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.38</v>
       </c>
       <c r="C30" t="s"/>
-      <c r="D30" t="s">
-        <v>118</v>
+      <c r="D30" t="n">
+        <v>0.7</v>
       </c>
       <c r="E30" t="s"/>
-      <c r="F30" t="s">
-        <v>119</v>
+      <c r="F30" t="n">
+        <v>0.97</v>
       </c>
       <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>398</v>
+      <c r="H30" t="n">
+        <v>2.71</v>
       </c>
       <c r="I30" t="s"/>
-      <c r="J30" t="s">
-        <v>121</v>
+      <c r="J30" t="n">
+        <v>0.5</v>
       </c>
       <c r="K30" t="s"/>
-      <c r="L30" t="s">
-        <v>122</v>
+      <c r="L30" t="n">
+        <v>0.86</v>
       </c>
       <c r="M30" t="s"/>
-      <c r="N30" t="s">
-        <v>123</v>
+      <c r="N30" t="n">
+        <v>0.87</v>
       </c>
       <c r="O30" t="s"/>
-      <c r="P30" t="s">
-        <v>124</v>
+      <c r="P30" t="n">
+        <v>2.93</v>
       </c>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s">
-        <v>125</v>
+      <c r="R30" t="n">
+        <v>0.22</v>
       </c>
       <c r="S30" t="s"/>
-      <c r="T30" t="s">
-        <v>126</v>
+      <c r="T30" t="n">
+        <v>0.61</v>
       </c>
       <c r="U30" t="s"/>
-      <c r="V30" t="s">
-        <v>127</v>
+      <c r="V30" t="n">
+        <v>0.26</v>
       </c>
       <c r="W30" t="s"/>
-      <c r="X30" t="s">
-        <v>127</v>
+      <c r="X30" t="n">
+        <v>0.26</v>
       </c>
       <c r="Y30" t="s"/>
-      <c r="Z30" t="s">
-        <v>128</v>
+      <c r="Z30" t="n">
+        <v>0.06</v>
       </c>
       <c r="AA30" t="s"/>
-      <c r="AB30" t="s">
-        <v>129</v>
+      <c r="AB30" t="n">
+        <v>0.54</v>
       </c>
       <c r="AC30" t="s"/>
-      <c r="AD30" t="s">
-        <v>130</v>
+      <c r="AD30" t="n">
+        <v>0.63</v>
       </c>
       <c r="AE30" t="s"/>
-      <c r="AF30" t="s">
-        <v>131</v>
+      <c r="AF30" t="n">
+        <v>1.72</v>
       </c>
       <c r="AG30" t="s"/>
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B31" t="s">
-        <v>400</v>
+        <v>61</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2340789</v>
       </c>
       <c r="C31" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="D31" t="s">
-        <v>401</v>
+      <c r="D31" t="n">
+        <v>4608774</v>
       </c>
       <c r="E31" t="n">
         <v>16.08</v>
       </c>
-      <c r="F31" t="s">
-        <v>402</v>
+      <c r="F31" t="n">
+        <v>6518421</v>
       </c>
       <c r="G31" t="n">
         <v>21.65</v>
       </c>
-      <c r="H31" t="s">
-        <v>403</v>
+      <c r="H31" t="n">
+        <v>18604456</v>
       </c>
       <c r="I31" t="n">
         <v>16.02</v>
       </c>
-      <c r="J31" t="s">
-        <v>404</v>
+      <c r="J31" t="n">
+        <v>3550846</v>
       </c>
       <c r="K31" t="n">
         <v>13.29</v>
       </c>
-      <c r="L31" t="s">
-        <v>405</v>
+      <c r="L31" t="n">
+        <v>6286197</v>
       </c>
       <c r="M31" t="n">
         <v>19.72</v>
       </c>
-      <c r="N31" t="s">
-        <v>406</v>
+      <c r="N31" t="n">
+        <v>6096423</v>
       </c>
       <c r="O31" t="n">
         <v>20.26</v>
       </c>
-      <c r="P31" t="s">
-        <v>407</v>
+      <c r="P31" t="n">
+        <v>21198720</v>
       </c>
       <c r="Q31" t="n">
         <v>17.92</v>
       </c>
-      <c r="R31" t="s">
-        <v>408</v>
+      <c r="R31" t="n">
+        <v>1469867</v>
       </c>
       <c r="S31" t="n">
         <v>6.86</v>
       </c>
-      <c r="T31" t="s">
-        <v>409</v>
+      <c r="T31" t="n">
+        <v>3242509</v>
       </c>
       <c r="U31" t="n">
         <v>12.97</v>
       </c>
-      <c r="V31" t="s">
-        <v>410</v>
+      <c r="V31" t="n">
+        <v>1171311</v>
       </c>
       <c r="W31" t="n">
         <v>5.16</v>
       </c>
-      <c r="X31" t="s">
-        <v>410</v>
+      <c r="X31" t="n">
+        <v>1171311</v>
       </c>
       <c r="Y31" t="n">
         <v>5.16</v>
       </c>
-      <c r="Z31" t="s">
-        <v>411</v>
+      <c r="Z31" t="n">
+        <v>277847</v>
       </c>
       <c r="AA31" t="n">
         <v>1.57</v>
       </c>
-      <c r="AB31" t="s">
-        <v>412</v>
+      <c r="AB31" t="n">
+        <v>3468198</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>413</v>
+        <v>15.12</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>4025068</v>
       </c>
       <c r="AE31" t="n">
         <v>18.01</v>
       </c>
-      <c r="AF31" t="s">
-        <v>414</v>
+      <c r="AF31" t="n">
+        <v>11515335</v>
       </c>
       <c r="AG31" t="n">
         <v>12.86</v>
@@ -4612,100 +3356,100 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B32" t="s">
-        <v>416</v>
+        <v>62</v>
+      </c>
+      <c r="B32" t="n">
+        <v>863958</v>
       </c>
       <c r="C32" t="n">
         <v>3.58</v>
       </c>
-      <c r="D32" t="s">
-        <v>417</v>
+      <c r="D32" t="n">
+        <v>751722</v>
       </c>
       <c r="E32" t="n">
         <v>2.62</v>
       </c>
-      <c r="F32" t="s">
-        <v>418</v>
+      <c r="F32" t="n">
+        <v>884978</v>
       </c>
       <c r="G32" t="n">
         <v>2.94</v>
       </c>
-      <c r="H32" t="s">
-        <v>419</v>
+      <c r="H32" t="n">
+        <v>3984173</v>
       </c>
       <c r="I32" t="n">
         <v>3.43</v>
       </c>
-      <c r="J32" t="s">
-        <v>420</v>
+      <c r="J32" t="n">
+        <v>936449</v>
       </c>
       <c r="K32" t="n">
         <v>3.51</v>
       </c>
-      <c r="L32" t="s">
-        <v>421</v>
+      <c r="L32" t="n">
+        <v>966067</v>
       </c>
       <c r="M32" t="n">
         <v>3.03</v>
       </c>
-      <c r="N32" t="s">
-        <v>422</v>
+      <c r="N32" t="n">
+        <v>880729</v>
       </c>
       <c r="O32" t="n">
         <v>2.93</v>
       </c>
-      <c r="P32" t="s">
-        <v>423</v>
+      <c r="P32" t="n">
+        <v>4011430</v>
       </c>
       <c r="Q32" t="n">
         <v>3.39</v>
       </c>
-      <c r="R32" t="s">
-        <v>424</v>
+      <c r="R32" t="n">
+        <v>933763</v>
       </c>
       <c r="S32" t="n">
         <v>4.36</v>
       </c>
-      <c r="T32" t="s">
-        <v>425</v>
+      <c r="T32" t="n">
+        <v>765974</v>
       </c>
       <c r="U32" t="n">
         <v>3.06</v>
       </c>
-      <c r="V32" t="s">
-        <v>426</v>
+      <c r="V32" t="n">
+        <v>1099865</v>
       </c>
       <c r="W32" t="n">
         <v>4.85</v>
       </c>
-      <c r="X32" t="s">
-        <v>426</v>
+      <c r="X32" t="n">
+        <v>1099865</v>
       </c>
       <c r="Y32" t="n">
         <v>4.85</v>
       </c>
-      <c r="Z32" t="s">
-        <v>427</v>
+      <c r="Z32" t="n">
+        <v>910178</v>
       </c>
       <c r="AA32" t="n">
         <v>5.14</v>
       </c>
-      <c r="AB32" t="s">
-        <v>428</v>
+      <c r="AB32" t="n">
+        <v>1111103</v>
       </c>
       <c r="AC32" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>429</v>
+        <v>4.84</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>999161</v>
       </c>
       <c r="AE32" t="n">
         <v>4.47</v>
       </c>
-      <c r="AF32" t="s">
-        <v>430</v>
+      <c r="AF32" t="n">
+        <v>4193229</v>
       </c>
       <c r="AG32" t="n">
         <v>4.68</v>
@@ -4713,100 +3457,100 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B33" t="s">
-        <v>200</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1999624</v>
       </c>
       <c r="C33" t="n">
         <v>8.289999999999999</v>
       </c>
-      <c r="D33" t="s">
-        <v>201</v>
+      <c r="D33" t="n">
+        <v>3802105</v>
       </c>
       <c r="E33" t="n">
         <v>13.26</v>
       </c>
-      <c r="F33" t="s">
-        <v>202</v>
+      <c r="F33" t="n">
+        <v>5344662</v>
       </c>
       <c r="G33" t="n">
         <v>17.75</v>
       </c>
-      <c r="H33" t="s">
-        <v>203</v>
+      <c r="H33" t="n">
+        <v>15118683</v>
       </c>
       <c r="I33" t="n">
         <v>13.02</v>
       </c>
-      <c r="J33" t="s">
-        <v>204</v>
+      <c r="J33" t="n">
+        <v>2791235</v>
       </c>
       <c r="K33" t="n">
         <v>10.45</v>
       </c>
-      <c r="L33" t="s">
-        <v>205</v>
+      <c r="L33" t="n">
+        <v>4828695</v>
       </c>
       <c r="M33" t="n">
         <v>15.15</v>
       </c>
-      <c r="N33" t="s">
-        <v>206</v>
+      <c r="N33" t="n">
+        <v>4934486</v>
       </c>
       <c r="O33" t="n">
         <v>16.4</v>
       </c>
-      <c r="P33" t="s">
-        <v>207</v>
+      <c r="P33" t="n">
+        <v>16583876</v>
       </c>
       <c r="Q33" t="n">
         <v>14.02</v>
       </c>
-      <c r="R33" t="s">
-        <v>208</v>
+      <c r="R33" t="n">
+        <v>974518</v>
       </c>
       <c r="S33" t="n">
         <v>4.55</v>
       </c>
-      <c r="T33" t="s">
-        <v>209</v>
+      <c r="T33" t="n">
+        <v>2727845</v>
       </c>
       <c r="U33" t="n">
         <v>10.91</v>
       </c>
-      <c r="V33" t="s">
-        <v>210</v>
+      <c r="V33" t="n">
+        <v>989427</v>
       </c>
       <c r="W33" t="n">
         <v>4.36</v>
       </c>
-      <c r="X33" t="s">
-        <v>210</v>
+      <c r="X33" t="n">
+        <v>989427</v>
       </c>
       <c r="Y33" t="n">
         <v>4.36</v>
       </c>
-      <c r="Z33" t="s">
-        <v>211</v>
+      <c r="Z33" t="n">
+        <v>94527</v>
       </c>
       <c r="AA33" t="n">
         <v>0.53</v>
       </c>
-      <c r="AB33" t="s">
-        <v>212</v>
+      <c r="AB33" t="n">
+        <v>2708932</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>213</v>
+        <v>11.81</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3283221</v>
       </c>
       <c r="AE33" t="n">
         <v>14.69</v>
       </c>
-      <c r="AF33" t="s">
-        <v>214</v>
+      <c r="AF33" t="n">
+        <v>8842075</v>
       </c>
       <c r="AG33" t="n">
         <v>9.869999999999999</v>
@@ -4814,76 +3558,76 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B34" t="s">
-        <v>117</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.38</v>
       </c>
       <c r="C34" t="s"/>
-      <c r="D34" t="s">
-        <v>118</v>
+      <c r="D34" t="n">
+        <v>0.7</v>
       </c>
       <c r="E34" t="s"/>
-      <c r="F34" t="s">
-        <v>119</v>
+      <c r="F34" t="n">
+        <v>0.97</v>
       </c>
       <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>398</v>
+      <c r="H34" t="n">
+        <v>2.71</v>
       </c>
       <c r="I34" t="s"/>
-      <c r="J34" t="s">
-        <v>121</v>
+      <c r="J34" t="n">
+        <v>0.5</v>
       </c>
       <c r="K34" t="s"/>
-      <c r="L34" t="s">
-        <v>122</v>
+      <c r="L34" t="n">
+        <v>0.86</v>
       </c>
       <c r="M34" t="s"/>
-      <c r="N34" t="s">
-        <v>123</v>
+      <c r="N34" t="n">
+        <v>0.87</v>
       </c>
       <c r="O34" t="s"/>
-      <c r="P34" t="s">
-        <v>124</v>
+      <c r="P34" t="n">
+        <v>2.93</v>
       </c>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s">
-        <v>125</v>
+      <c r="R34" t="n">
+        <v>0.22</v>
       </c>
       <c r="S34" t="s"/>
-      <c r="T34" t="s">
-        <v>126</v>
+      <c r="T34" t="n">
+        <v>0.61</v>
       </c>
       <c r="U34" t="s"/>
-      <c r="V34" t="s">
-        <v>127</v>
+      <c r="V34" t="n">
+        <v>0.26</v>
       </c>
       <c r="W34" t="s"/>
-      <c r="X34" t="s">
-        <v>127</v>
+      <c r="X34" t="n">
+        <v>0.26</v>
       </c>
       <c r="Y34" t="s"/>
-      <c r="Z34" t="s">
-        <v>128</v>
+      <c r="Z34" t="n">
+        <v>0.06</v>
       </c>
       <c r="AA34" t="s"/>
-      <c r="AB34" t="s">
-        <v>129</v>
+      <c r="AB34" t="n">
+        <v>0.54</v>
       </c>
       <c r="AC34" t="s"/>
-      <c r="AD34" t="s">
-        <v>130</v>
+      <c r="AD34" t="n">
+        <v>0.63</v>
       </c>
       <c r="AE34" t="s"/>
-      <c r="AF34" t="s">
-        <v>131</v>
+      <c r="AF34" t="n">
+        <v>1.72</v>
       </c>
       <c r="AG34" t="s"/>
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>433</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
@@ -4911,16 +3655,12 @@
       <c r="Y35" t="s"/>
       <c r="Z35" t="s"/>
       <c r="AA35" t="s"/>
-      <c r="AB35" t="s">
-        <v>434</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>-0.12</v>
-      </c>
+      <c r="AB35" t="s"/>
+      <c r="AC35" t="s"/>
       <c r="AD35" t="s"/>
       <c r="AE35" t="s"/>
-      <c r="AF35" t="s">
-        <v>435</v>
+      <c r="AF35" t="n">
+        <v>65512</v>
       </c>
       <c r="AG35" t="n">
         <v>0.07000000000000001</v>
@@ -4928,7 +3668,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>436</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
@@ -4944,8 +3684,8 @@
       <c r="M36" t="s"/>
       <c r="N36" t="s"/>
       <c r="O36" t="s"/>
-      <c r="P36" t="s">
-        <v>437</v>
+      <c r="P36" t="n">
+        <v>-12178</v>
       </c>
       <c r="Q36" t="n">
         <v>-0.01</v>
@@ -4969,100 +3709,100 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B37" t="s">
-        <v>439</v>
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>528260</v>
       </c>
       <c r="C37" t="n">
         <v>2.19</v>
       </c>
-      <c r="D37" t="s">
-        <v>440</v>
+      <c r="D37" t="n">
+        <v>448341</v>
       </c>
       <c r="E37" t="n">
         <v>1.56</v>
       </c>
-      <c r="F37" t="s">
-        <v>441</v>
+      <c r="F37" t="n">
+        <v>526755</v>
       </c>
       <c r="G37" t="n">
         <v>1.75</v>
       </c>
-      <c r="H37" t="s">
-        <v>442</v>
+      <c r="H37" t="n">
+        <v>1910300</v>
       </c>
       <c r="I37" t="n">
         <v>1.65</v>
       </c>
-      <c r="J37" t="s">
-        <v>443</v>
+      <c r="J37" t="n">
+        <v>482195</v>
       </c>
       <c r="K37" t="n">
         <v>1.8</v>
       </c>
-      <c r="L37" t="s">
-        <v>444</v>
+      <c r="L37" t="n">
+        <v>470428</v>
       </c>
       <c r="M37" t="n">
         <v>1.48</v>
       </c>
-      <c r="N37" t="s">
-        <v>445</v>
+      <c r="N37" t="n">
+        <v>475282</v>
       </c>
       <c r="O37" t="n">
         <v>1.58</v>
       </c>
-      <c r="P37" t="s">
-        <v>446</v>
+      <c r="P37" t="n">
+        <v>1907215</v>
       </c>
       <c r="Q37" t="n">
         <v>1.61</v>
       </c>
-      <c r="R37" t="s">
-        <v>447</v>
+      <c r="R37" t="n">
+        <v>482383</v>
       </c>
       <c r="S37" t="n">
         <v>2.25</v>
       </c>
-      <c r="T37" t="s">
-        <v>448</v>
+      <c r="T37" t="n">
+        <v>418250</v>
       </c>
       <c r="U37" t="n">
         <v>1.67</v>
       </c>
-      <c r="V37" t="s">
-        <v>449</v>
+      <c r="V37" t="n">
+        <v>482851</v>
       </c>
       <c r="W37" t="n">
         <v>2.13</v>
       </c>
-      <c r="X37" t="s">
-        <v>449</v>
+      <c r="X37" t="n">
+        <v>482851</v>
       </c>
       <c r="Y37" t="n">
         <v>2.13</v>
       </c>
-      <c r="Z37" t="s">
-        <v>450</v>
+      <c r="Z37" t="n">
+        <v>504825</v>
       </c>
       <c r="AA37" t="n">
         <v>2.85</v>
       </c>
-      <c r="AB37" t="s">
-        <v>451</v>
+      <c r="AB37" t="n">
+        <v>466056</v>
       </c>
       <c r="AC37" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>452</v>
+        <v>2.03</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>469390</v>
       </c>
       <c r="AE37" t="n">
         <v>2.1</v>
       </c>
-      <c r="AF37" t="s">
-        <v>453</v>
+      <c r="AF37" t="n">
+        <v>1916837</v>
       </c>
       <c r="AG37" t="n">
         <v>2.14</v>
@@ -5070,7 +3810,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>454</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="s"/>
@@ -5078,16 +3818,16 @@
       <c r="E38" t="s"/>
       <c r="F38" t="s"/>
       <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>298</v>
+      <c r="H38" t="n">
+        <v>93275950</v>
       </c>
       <c r="I38" t="n">
         <v>80.34</v>
       </c>
       <c r="J38" t="s"/>
       <c r="K38" t="s"/>
-      <c r="L38" t="s">
-        <v>300</v>
+      <c r="L38" t="n">
+        <v>24732219</v>
       </c>
       <c r="M38" t="n">
         <v>77.59999999999999</v>
@@ -5115,28 +3855,28 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>455</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
       <c r="D39" t="s"/>
       <c r="E39" t="s"/>
-      <c r="F39" t="s">
-        <v>313</v>
+      <c r="F39" t="n">
+        <v>30106839</v>
       </c>
       <c r="G39" t="n">
         <v>100</v>
       </c>
-      <c r="H39" t="s">
-        <v>314</v>
+      <c r="H39" t="n">
+        <v>116098947</v>
       </c>
       <c r="I39" t="n">
         <v>100</v>
       </c>
       <c r="J39" t="s"/>
       <c r="K39" t="s"/>
-      <c r="L39" t="s">
-        <v>316</v>
+      <c r="L39" t="n">
+        <v>31873459</v>
       </c>
       <c r="M39" t="n">
         <v>100</v>
@@ -5164,100 +3904,100 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B40" t="s">
-        <v>457</v>
+        <v>70</v>
+      </c>
+      <c r="B40" t="n">
+        <v>586589</v>
       </c>
       <c r="C40" t="n">
         <v>2.43</v>
       </c>
-      <c r="D40" t="s">
-        <v>458</v>
+      <c r="D40" t="n">
+        <v>1215318</v>
       </c>
       <c r="E40" t="n">
         <v>4.24</v>
       </c>
-      <c r="F40" t="s">
-        <v>459</v>
+      <c r="F40" t="n">
+        <v>1750469</v>
       </c>
       <c r="G40" t="n">
         <v>5.81</v>
       </c>
-      <c r="H40" t="s">
-        <v>460</v>
+      <c r="H40" t="n">
+        <v>5091952</v>
       </c>
       <c r="I40" t="n">
         <v>4.39</v>
       </c>
-      <c r="J40" t="s">
-        <v>461</v>
+      <c r="J40" t="n">
+        <v>958096</v>
       </c>
       <c r="K40" t="n">
         <v>3.59</v>
       </c>
-      <c r="L40" t="s">
-        <v>462</v>
+      <c r="L40" t="n">
+        <v>1632949</v>
       </c>
       <c r="M40" t="n">
         <v>5.12</v>
       </c>
-      <c r="N40" t="s">
-        <v>463</v>
+      <c r="N40" t="n">
+        <v>1718652</v>
       </c>
       <c r="O40" t="n">
         <v>5.71</v>
       </c>
-      <c r="P40" t="s">
-        <v>464</v>
+      <c r="P40" t="n">
+        <v>5755008</v>
       </c>
       <c r="Q40" t="n">
         <v>4.86</v>
       </c>
-      <c r="R40" t="s">
-        <v>465</v>
+      <c r="R40" t="n">
+        <v>165740</v>
       </c>
       <c r="S40" t="n">
         <v>0.77</v>
       </c>
-      <c r="T40" t="s">
-        <v>466</v>
+      <c r="T40" t="n">
+        <v>484716</v>
       </c>
       <c r="U40" t="n">
         <v>1.94</v>
       </c>
-      <c r="V40" t="s">
-        <v>467</v>
+      <c r="V40" t="n">
+        <v>40682</v>
       </c>
       <c r="W40" t="n">
         <v>0.18</v>
       </c>
-      <c r="X40" t="s">
-        <v>467</v>
+      <c r="X40" t="n">
+        <v>40682</v>
       </c>
       <c r="Y40" t="n">
         <v>0.18</v>
       </c>
-      <c r="Z40" t="s">
-        <v>468</v>
+      <c r="Z40" t="n">
+        <v>-126468</v>
       </c>
       <c r="AA40" t="n">
         <v>-0.71</v>
       </c>
-      <c r="AB40" t="s">
-        <v>469</v>
+      <c r="AB40" t="n">
+        <v>705187</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>470</v>
+        <v>3.07</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>961929</v>
       </c>
       <c r="AE40" t="n">
         <v>4.3</v>
       </c>
-      <c r="AF40" t="s">
-        <v>471</v>
+      <c r="AF40" t="n">
+        <v>2483623</v>
       </c>
       <c r="AG40" t="n">
         <v>2.77</v>
@@ -5265,100 +4005,100 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B41" t="s">
-        <v>473</v>
+        <v>71</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1372959</v>
       </c>
       <c r="C41" t="n">
         <v>5.69</v>
       </c>
-      <c r="D41" t="s">
-        <v>474</v>
+      <c r="D41" t="n">
+        <v>1630521</v>
       </c>
       <c r="E41" t="n">
         <v>5.69</v>
       </c>
-      <c r="F41" t="s">
-        <v>475</v>
+      <c r="F41" t="n">
+        <v>1745042</v>
       </c>
       <c r="G41" t="n">
         <v>5.8</v>
       </c>
-      <c r="H41" t="s">
-        <v>476</v>
+      <c r="H41" t="n">
+        <v>6904084</v>
       </c>
       <c r="I41" t="n">
         <v>5.95</v>
       </c>
-      <c r="J41" t="s">
-        <v>477</v>
+      <c r="J41" t="n">
+        <v>617852</v>
       </c>
       <c r="K41" t="n">
         <v>2.31</v>
       </c>
-      <c r="L41" t="s">
-        <v>478</v>
+      <c r="L41" t="n">
+        <v>1186914</v>
       </c>
       <c r="M41" t="n">
         <v>3.72</v>
       </c>
-      <c r="N41" t="s">
-        <v>479</v>
+      <c r="N41" t="n">
+        <v>2485425</v>
       </c>
       <c r="O41" t="n">
         <v>8.26</v>
       </c>
-      <c r="P41" t="s">
-        <v>480</v>
+      <c r="P41" t="n">
+        <v>6468828</v>
       </c>
       <c r="Q41" t="n">
         <v>5.47</v>
       </c>
-      <c r="R41" t="s">
-        <v>481</v>
+      <c r="R41" t="n">
+        <v>-146826</v>
       </c>
       <c r="S41" t="n">
         <v>-0.68</v>
       </c>
-      <c r="T41" t="s">
-        <v>482</v>
+      <c r="T41" t="n">
+        <v>76409</v>
       </c>
       <c r="U41" t="n">
         <v>0.31</v>
       </c>
-      <c r="V41" t="s">
-        <v>483</v>
+      <c r="V41" t="n">
+        <v>954599</v>
       </c>
       <c r="W41" t="n">
         <v>4.21</v>
       </c>
-      <c r="X41" t="s">
-        <v>483</v>
+      <c r="X41" t="n">
+        <v>954599</v>
       </c>
       <c r="Y41" t="n">
         <v>4.21</v>
       </c>
-      <c r="Z41" t="s">
-        <v>484</v>
+      <c r="Z41" t="n">
+        <v>-400459</v>
       </c>
       <c r="AA41" t="n">
         <v>-2.26</v>
       </c>
-      <c r="AB41" t="s">
-        <v>485</v>
+      <c r="AB41" t="n">
+        <v>-299669</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>486</v>
+        <v>-1.31</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>-202271</v>
       </c>
       <c r="AE41" t="n">
         <v>-0.91</v>
       </c>
-      <c r="AF41" t="s">
-        <v>487</v>
+      <c r="AF41" t="n">
+        <v>-556752</v>
       </c>
       <c r="AG41" t="n">
         <v>-0.62</v>
